--- a/target/classes/companies/tech/Microsoft/MSFT_Microsoft.xlsx
+++ b/target/classes/companies/tech/Microsoft/MSFT_Microsoft.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A449CDF3-4847-49B3-B1C1-32D83E004718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valuation Metrics" sheetId="5" r:id="rId1"/>
@@ -15,7 +16,7 @@
     <sheet name="DDM" sheetId="7" r:id="rId6"/>
     <sheet name="Financials" sheetId="3" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="165">
   <si>
     <t>WACC</t>
   </si>
@@ -498,6 +499,15 @@
     <t>EPS Growth esitmation (%)</t>
   </si>
   <si>
+    <t>CE_Celanese</t>
+  </si>
+  <si>
+    <t>sector median (19.16)</t>
+  </si>
+  <si>
+    <t>sector median (14.4)</t>
+  </si>
+  <si>
     <t>Long Term Debt</t>
   </si>
   <si>
@@ -522,7 +532,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -1243,7 +1253,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="12" fillId="7" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1353,7 +1363,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="12" fillId="3" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1362,7 +1372,7 @@
     <xf numFmtId="2" fontId="5" fillId="3" borderId="5" xfId="6" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="true" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1377,11 +1387,11 @@
     <xf numFmtId="166" fontId="16" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1403,18 +1413,18 @@
     <xf numFmtId="2" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="25" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="3" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1423,7 +1433,7 @@
     <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1533,7 +1543,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1578,7 +1588,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1681,9 +1690,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1747,40 +1755,40 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.28083854641678119</c:v>
+                  <c:v>0.16912442396313365</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25421210829983992</c:v>
+                  <c:v>9.1737724198765067E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13029493481513144</c:v>
+                  <c:v>5.3577722946774764E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22532198257893235</c:v>
+                  <c:v>0.16700686583781776</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.26394052044609667</c:v>
+                  <c:v>0.13729641693811076</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15015404131931859</c:v>
+                  <c:v>0.16869322152341021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.31181710544090652</c:v>
+                  <c:v>0.13530252501191042</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.30962486452470023</c:v>
+                  <c:v>0.35101679929266139</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.36451739564989766</c:v>
+                  <c:v>0.22138924680801217</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.36686336813436221</c:v>
+                  <c:v>0.1958027499224646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5FE3-402B-88B1-A32EEE73278E}"/>
             </c:ext>
@@ -1847,9 +1855,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1913,40 +1920,40 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.39202815707330857</c:v>
+                  <c:v>0.28064516129032258</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.37970587219144797</c:v>
+                  <c:v>0.15524845633637166</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33784996794186795</c:v>
+                  <c:v>0.1214310891787099</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.36564495249797047</c:v>
+                  <c:v>0.22805715346075339</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.39145292064905612</c:v>
+                  <c:v>0.19006514657980456</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.41064697354113811</c:v>
+                  <c:v>0.23522012578616353</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.43419975683987189</c:v>
+                  <c:v>0.18897887883118947</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.45977694647414608</c:v>
+                  <c:v>0.18037135278514588</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.48547189567369475</c:v>
+                  <c:v>0.2722267775565187</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.49348363342916224</c:v>
+                  <c:v>0.19187428925876149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5FE3-402B-88B1-A32EEE73278E}"/>
             </c:ext>
@@ -2013,9 +2020,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2079,40 +2085,40 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.3156880627882182</c:v>
+                  <c:v>5.9139784946236562E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31113747077723908</c:v>
+                  <c:v>4.1752425757130257E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25351570848471894</c:v>
+                  <c:v>6.0274938315121609E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27406367246637559</c:v>
+                  <c:v>0.12005938021896456</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32492156030278241</c:v>
+                  <c:v>8.7296416938110744E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.29224356650960492</c:v>
+                  <c:v>0.17064989517819706</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.30402962421429874</c:v>
+                  <c:v>0.17214546609496587</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.31628850120616719</c:v>
+                  <c:v>0.17312113174182139</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.33386083480081863</c:v>
+                  <c:v>0.15110694623404006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.32858727997175569</c:v>
+                  <c:v>0.13191357386539854</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5FE3-402B-88B1-A32EEE73278E}"/>
             </c:ext>
@@ -2128,11 +2134,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="329047080"/>
-        <c:axId val="329047464"/>
+        <c:axId val="324061504"/>
+        <c:axId val="323784136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="329047080"/>
+        <c:axId val="324061504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2174,7 +2180,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329047464"/>
+        <c:crossAx val="323784136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2182,7 +2188,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329047464"/>
+        <c:axId val="323784136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2227,7 +2233,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2286,7 +2291,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329047080"/>
+        <c:crossAx val="324061504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2300,7 +2305,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2378,7 +2382,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2423,7 +2427,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2575,9 +2578,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2641,40 +2643,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>14.010000228881836</c:v>
+                  <c:v>17.280000686645508</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.219999313354492</c:v>
+                  <c:v>6.9099998474121094</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.740001678466797</c:v>
+                  <c:v>19.739999771118164</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.729999542236328</c:v>
+                  <c:v>25.079999923706055</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.229999542236328</c:v>
+                  <c:v>18.399999618530273</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.799999237060547</c:v>
+                  <c:v>9.2899999618530273</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.75</c:v>
+                  <c:v>16.959999084472656</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.869998931884766</c:v>
+                  <c:v>26.139999389648438</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37.619998931884766</c:v>
+                  <c:v>6.8400001525878906</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25.809999465942383</c:v>
+                  <c:v>6.7399997711181641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2E99-43A2-91C6-E54CD548E410}"/>
             </c:ext>
@@ -2790,9 +2792,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2856,40 +2857,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>11.079999923706055</c:v>
+                  <c:v>13.220000267028809</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.020000457763672</c:v>
+                  <c:v>9.8900003433227539</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.479999542236328</c:v>
+                  <c:v>11.619999885559082</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.739999771118164</c:v>
+                  <c:v>10.770000457763672</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.540000915527344</c:v>
+                  <c:v>21.469999313354492</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.530000686645508</c:v>
+                  <c:v>9.7899999618530273</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.309999465942383</c:v>
+                  <c:v>10.529999732971191</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.760000228881836</c:v>
+                  <c:v>11.140000343322754</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.149999618530273</c:v>
+                  <c:v>13.199999809265137</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.559999465942383</c:v>
+                  <c:v>6.0100002288818359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2E99-43A2-91C6-E54CD548E410}"/>
             </c:ext>
@@ -2905,11 +2906,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="330020048"/>
-        <c:axId val="328079264"/>
+        <c:axId val="324914160"/>
+        <c:axId val="324911808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="330020048"/>
+        <c:axId val="324914160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2951,7 +2952,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328079264"/>
+        <c:crossAx val="324911808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2959,7 +2960,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="328079264"/>
+        <c:axId val="324911808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3009,7 +3010,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330020048"/>
+        <c:crossAx val="324914160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3023,7 +3024,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3101,7 +3101,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3115,7 +3115,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3248,9 +3247,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3314,39 +3312,39 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.5799999237060547</c:v>
+                  <c:v>6.9099998474121094</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.630000114440918</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4800000190734863</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.559999942779541</c:v>
+                  <c:v>6.179999828338623</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.25</c:v>
+                  <c:v>6.0900001525878906</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.130000114440918</c:v>
+                  <c:v>8.9099998474121094</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.059999942779541</c:v>
+                  <c:v>6.8400001525878906</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.7600002288818359</c:v>
+                  <c:v>16.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0500001907348633</c:v>
+                  <c:v>16.860000610351563</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.6499996185302734</c:v>
+                  <c:v>17.340000152587891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CD4E-4D0E-B961-FAF8C19FC55E}"/>
             </c:ext>
@@ -3363,11 +3361,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="382876080"/>
-        <c:axId val="382874904"/>
+        <c:axId val="324915728"/>
+        <c:axId val="324918080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="382876080"/>
+        <c:axId val="324915728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3409,7 +3407,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382874904"/>
+        <c:crossAx val="324918080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3417,7 +3415,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="382874904"/>
+        <c:axId val="324918080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3467,7 +3465,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382876080"/>
+        <c:crossAx val="324915728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3481,7 +3479,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3559,7 +3556,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3573,7 +3570,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3706,9 +3702,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3772,39 +3767,39 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>77849</c:v>
+                  <c:v>6510</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>86833</c:v>
+                  <c:v>6802</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>93580</c:v>
+                  <c:v>5674</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91154</c:v>
+                  <c:v>5389</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96571</c:v>
+                  <c:v>6140</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>110360</c:v>
+                  <c:v>7155</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>125843</c:v>
+                  <c:v>6297</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>143015</c:v>
+                  <c:v>5655</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>168088</c:v>
+                  <c:v>8537</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>198270</c:v>
+                  <c:v>9673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B10E-45FB-AC97-BE6E1683FD6F}"/>
             </c:ext>
@@ -3821,11 +3816,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="382874512"/>
-        <c:axId val="382879608"/>
+        <c:axId val="324914944"/>
+        <c:axId val="324915336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="382874512"/>
+        <c:axId val="324914944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3867,7 +3862,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382879608"/>
+        <c:crossAx val="324915336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3875,7 +3870,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="382879608"/>
+        <c:axId val="324915336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3925,7 +3920,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382874512"/>
+        <c:crossAx val="324914944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3939,7 +3934,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4017,7 +4011,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4066,7 +4060,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4208,39 +4201,39 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>12601</c:v>
+                  <c:v>2887</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20645</c:v>
+                  <c:v>2586</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27808</c:v>
+                  <c:v>2468</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40557</c:v>
+                  <c:v>2890</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76073</c:v>
+                  <c:v>3315</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72242</c:v>
+                  <c:v>2970</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>66662</c:v>
+                  <c:v>3409</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>59578</c:v>
+                  <c:v>3227</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50074</c:v>
+                  <c:v>3176</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>47032</c:v>
+                  <c:v>13373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-324E-45CF-BF1C-D9569523F0D8}"/>
             </c:ext>
@@ -4345,39 +4338,39 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>30519</c:v>
+                  <c:v>1827</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32971</c:v>
+                  <c:v>1056</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31616</c:v>
+                  <c:v>689</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33330</c:v>
+                  <c:v>1229</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37803</c:v>
+                  <c:v>1167</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45319</c:v>
+                  <c:v>1683</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>54641</c:v>
+                  <c:v>1190</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>65755</c:v>
+                  <c:v>1020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81602</c:v>
+                  <c:v>2324</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>97843</c:v>
+                  <c:v>1856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-324E-45CF-BF1C-D9569523F0D8}"/>
             </c:ext>
@@ -4392,8 +4385,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="382876864"/>
-        <c:axId val="382877256"/>
+        <c:axId val="647557008"/>
+        <c:axId val="647553648"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -4468,40 +4461,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.41289033061371605</c:v>
+                  <c:v>1.5801860974274768</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6261563191895908</c:v>
+                  <c:v>2.4488636363636362</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.87955465587044535</c:v>
+                  <c:v>3.5820029027576199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2168316831683168</c:v>
+                  <c:v>2.3515052888527257</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0123535169166469</c:v>
+                  <c:v>2.8406169665809768</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5940775392219599</c:v>
+                  <c:v>1.7647058823529411</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2199996339744881</c:v>
+                  <c:v>2.8647058823529412</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.90606037563683373</c:v>
+                  <c:v>3.1637254901960783</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.61363692066370923</c:v>
+                  <c:v>1.3666092943201378</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.48068844986355691</c:v>
+                  <c:v>7.2052801724137927</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-324E-45CF-BF1C-D9569523F0D8}"/>
             </c:ext>
@@ -4517,11 +4510,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="382880000"/>
-        <c:axId val="382878040"/>
+        <c:axId val="874562128"/>
+        <c:axId val="874567888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="382876864"/>
+        <c:axId val="647557008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4563,7 +4556,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382877256"/>
+        <c:crossAx val="647553648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4571,7 +4564,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="382877256"/>
+        <c:axId val="647553648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4621,12 +4614,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382876864"/>
+        <c:crossAx val="647557008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="382878040"/>
+        <c:axId val="874567888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4662,12 +4655,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382880000"/>
+        <c:crossAx val="874562128"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="382880000"/>
+        <c:axId val="874562128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4677,7 +4670,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="382878040"/>
+        <c:crossAx val="874567888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4694,7 +4687,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4725,14 +4717,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -4779,7 +4771,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4824,7 +4816,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4966,39 +4957,39 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>24576</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27017</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23724</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24982</c:v>
+                  <c:v>647</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31378</c:v>
+                  <c:v>536</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32252</c:v>
+                  <c:v>1221</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38260</c:v>
+                  <c:v>1084</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45234</c:v>
+                  <c:v>979</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56118</c:v>
+                  <c:v>1290</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>65149</c:v>
+                  <c:v>1276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0DED-4E4A-AA11-E50E447108A8}"/>
             </c:ext>
@@ -5103,39 +5094,39 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7455</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8879</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9882</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11006</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11845</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12699</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13811</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15137</c:v>
+                  <c:v>293</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16521</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18135</c:v>
+                  <c:v>297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0DED-4E4A-AA11-E50E447108A8}"/>
             </c:ext>
@@ -5150,8 +5141,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="329515408"/>
-        <c:axId val="329612256"/>
+        <c:axId val="323890768"/>
+        <c:axId val="323891152"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -5216,9 +5207,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5243,40 +5233,40 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.3033447265625</c:v>
+                  <c:v>0.21558441558441557</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32864492726801642</c:v>
+                  <c:v>0.50704225352112675</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.41654021244309558</c:v>
+                  <c:v>0.50877192982456143</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.44055720118485309</c:v>
+                  <c:v>0.31066460587326122</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.37749378545477724</c:v>
+                  <c:v>0.44962686567164178</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.39374302368845343</c:v>
+                  <c:v>0.22932022932022933</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.36097752221641399</c:v>
+                  <c:v>0.2767527675276753</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.33463766193571209</c:v>
+                  <c:v>0.2992849846782431</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.29439751951245591</c:v>
+                  <c:v>0.23565891472868217</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.27836190885508605</c:v>
+                  <c:v>0.23275862068965517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0DED-4E4A-AA11-E50E447108A8}"/>
             </c:ext>
@@ -5290,11 +5280,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="329617128"/>
-        <c:axId val="329616744"/>
+        <c:axId val="323924800"/>
+        <c:axId val="323899736"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="329515408"/>
+        <c:axId val="323890768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5336,7 +5326,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329612256"/>
+        <c:crossAx val="323891152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5344,7 +5334,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329612256"/>
+        <c:axId val="323891152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5394,12 +5384,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329515408"/>
+        <c:crossAx val="323890768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="329616744"/>
+        <c:axId val="323899736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5435,12 +5425,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329617128"/>
+        <c:crossAx val="323924800"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="329617128"/>
+        <c:axId val="323924800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5449,7 +5439,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329616744"/>
+        <c:crossAx val="323899736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5500,7 +5490,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5578,7 +5567,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5623,7 +5612,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5765,39 +5753,39 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>40965</c:v>
+                  <c:v>5836</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58138</c:v>
+                  <c:v>6098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51675</c:v>
+                  <c:v>5799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53808</c:v>
+                  <c:v>5885</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87616</c:v>
+                  <c:v>6746</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>89186</c:v>
+                  <c:v>6439</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>111004</c:v>
+                  <c:v>6711</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>119396</c:v>
+                  <c:v>7146</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>149373</c:v>
+                  <c:v>8168</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>195156</c:v>
+                  <c:v>19661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E31F-4C09-80D9-ADBB573BF7C8}"/>
             </c:ext>
@@ -5902,39 +5890,39 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>101466</c:v>
+                  <c:v>3182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>114246</c:v>
+                  <c:v>2698</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>122797</c:v>
+                  <c:v>2787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>139660</c:v>
+                  <c:v>2472</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>162696</c:v>
+                  <c:v>2792</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>169662</c:v>
+                  <c:v>2874</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>175552</c:v>
+                  <c:v>2765</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>181915</c:v>
+                  <c:v>3763</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>184406</c:v>
+                  <c:v>3807</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>169684</c:v>
+                  <c:v>6611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E31F-4C09-80D9-ADBB573BF7C8}"/>
             </c:ext>
@@ -5950,11 +5938,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="100"/>
-        <c:axId val="329644728"/>
-        <c:axId val="329645112"/>
+        <c:axId val="323936248"/>
+        <c:axId val="324020400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="329644728"/>
+        <c:axId val="323936248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5996,7 +5984,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329645112"/>
+        <c:crossAx val="324020400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6004,7 +5992,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329645112"/>
+        <c:axId val="324020400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6054,7 +6042,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329644728"/>
+        <c:crossAx val="323936248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6068,7 +6056,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6146,7 +6133,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6191,7 +6178,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6333,39 +6319,39 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>37417</c:v>
+                  <c:v>1545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45625</c:v>
+                  <c:v>1338</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49647</c:v>
+                  <c:v>1550</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59357</c:v>
+                  <c:v>1077</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55745</c:v>
+                  <c:v>1559</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58488</c:v>
+                  <c:v>1779</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69420</c:v>
+                  <c:v>1754</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>72310</c:v>
+                  <c:v>1973</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>88657</c:v>
+                  <c:v>2505</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>95082</c:v>
+                  <c:v>4068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3568-4E8A-8CFA-F7ADD20FD77D}"/>
             </c:ext>
@@ -6470,39 +6456,39 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>26070</c:v>
+                  <c:v>4774</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36975</c:v>
+                  <c:v>4380</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44742</c:v>
+                  <c:v>4207</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62114</c:v>
+                  <c:v>4259</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>106856</c:v>
+                  <c:v>4680</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>117642</c:v>
+                  <c:v>4155</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>114806</c:v>
+                  <c:v>4824</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>110697</c:v>
+                  <c:v>5041</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>103134</c:v>
+                  <c:v>4933</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>103216</c:v>
+                  <c:v>16099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3568-4E8A-8CFA-F7ADD20FD77D}"/>
             </c:ext>
@@ -6518,11 +6504,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="328080048"/>
-        <c:axId val="328077696"/>
+        <c:axId val="324449320"/>
+        <c:axId val="324447752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="328080048"/>
+        <c:axId val="324449320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6564,7 +6550,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328077696"/>
+        <c:crossAx val="324447752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6572,7 +6558,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="328077696"/>
+        <c:axId val="324447752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6622,7 +6608,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328080048"/>
+        <c:crossAx val="324449320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6636,7 +6622,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6714,7 +6699,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6759,7 +6744,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6901,39 +6885,39 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>78944</c:v>
+                  <c:v>2699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89784</c:v>
+                  <c:v>3078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80083</c:v>
+                  <c:v>2829</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>71997</c:v>
+                  <c:v>3021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87711</c:v>
+                  <c:v>3299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>82718</c:v>
+                  <c:v>3379</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>102330</c:v>
+                  <c:v>2898</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>118304</c:v>
+                  <c:v>3895</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>141988</c:v>
+                  <c:v>4537</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>166542</c:v>
+                  <c:v>6105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4D91-4451-902B-E5C55349FE88}"/>
             </c:ext>
@@ -7018,39 +7002,39 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>63487</c:v>
+                  <c:v>6319</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82600</c:v>
+                  <c:v>5718</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94389</c:v>
+                  <c:v>5757</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>121471</c:v>
+                  <c:v>5336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>162601</c:v>
+                  <c:v>6239</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>176130</c:v>
+                  <c:v>5934</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>184226</c:v>
+                  <c:v>6578</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>183007</c:v>
+                  <c:v>7014</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>191791</c:v>
+                  <c:v>7438</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>198298</c:v>
+                  <c:v>20167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4D91-4451-902B-E5C55349FE88}"/>
             </c:ext>
@@ -7065,8 +7049,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="330021616"/>
-        <c:axId val="330020440"/>
+        <c:axId val="324450104"/>
+        <c:axId val="324450496"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -7131,9 +7115,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7158,40 +7141,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.80420297932711793</c:v>
+                  <c:v>2.341237495368655</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91998574356232732</c:v>
+                  <c:v>1.8576998050682261</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1786396613513479</c:v>
+                  <c:v>2.0349946977730649</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6871675208689252</c:v>
+                  <c:v>1.7663025488248925</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8538267720126325</c:v>
+                  <c:v>1.8911791451955138</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1292826228874007</c:v>
+                  <c:v>1.7561408700799053</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8003127137691781</c:v>
+                  <c:v>2.2698412698412698</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5469214903976196</c:v>
+                  <c:v>1.8007702182284981</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3507549933797223</c:v>
+                  <c:v>1.6394093013004187</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1906786276134549</c:v>
+                  <c:v>3.3033579033579032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-4D91-4451-902B-E5C55349FE88}"/>
             </c:ext>
@@ -7205,11 +7188,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="330025928"/>
-        <c:axId val="330020832"/>
+        <c:axId val="324447360"/>
+        <c:axId val="324446968"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="330021616"/>
+        <c:axId val="324450104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7251,7 +7234,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330020440"/>
+        <c:crossAx val="324450496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7259,7 +7242,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="330020440"/>
+        <c:axId val="324450496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7309,12 +7292,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330021616"/>
+        <c:crossAx val="324450104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="330020832"/>
+        <c:axId val="324446968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7350,12 +7333,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330025928"/>
+        <c:crossAx val="324447360"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="330025928"/>
+        <c:axId val="324447360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7364,7 +7347,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="330020832"/>
+        <c:crossAx val="324446968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7378,7 +7361,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7456,7 +7438,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7501,7 +7483,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7623,39 +7604,39 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>101466</c:v>
+                  <c:v>3182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>114246</c:v>
+                  <c:v>2698</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>122797</c:v>
+                  <c:v>2787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>139660</c:v>
+                  <c:v>2472</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>162696</c:v>
+                  <c:v>2792</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>169662</c:v>
+                  <c:v>2874</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>175552</c:v>
+                  <c:v>2765</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>181915</c:v>
+                  <c:v>3763</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>184406</c:v>
+                  <c:v>3807</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>169684</c:v>
+                  <c:v>6611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-39A7-4D67-B636-EDCF6282012C}"/>
             </c:ext>
@@ -7740,39 +7721,39 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>37417</c:v>
+                  <c:v>1545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45625</c:v>
+                  <c:v>1338</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49647</c:v>
+                  <c:v>1550</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59357</c:v>
+                  <c:v>1077</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55745</c:v>
+                  <c:v>1559</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58488</c:v>
+                  <c:v>1779</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69420</c:v>
+                  <c:v>1754</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>72310</c:v>
+                  <c:v>1973</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>88657</c:v>
+                  <c:v>2505</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>95082</c:v>
+                  <c:v>4068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-39A7-4D67-B636-EDCF6282012C}"/>
             </c:ext>
@@ -7787,8 +7768,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="330018872"/>
-        <c:axId val="330021224"/>
+        <c:axId val="324448536"/>
+        <c:axId val="324448928"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -7853,9 +7834,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7919,40 +7899,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.7117620333003716</c:v>
+                  <c:v>2.0595469255663432</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.504021917808219</c:v>
+                  <c:v>2.0164424514200299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4734022196708763</c:v>
+                  <c:v>1.7980645161290323</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3528817157201343</c:v>
+                  <c:v>2.2952646239554317</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9185756570095971</c:v>
+                  <c:v>1.790891597177678</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9008001641362329</c:v>
+                  <c:v>1.615514333895447</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5288389513108616</c:v>
+                  <c:v>1.5763968072976056</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5157654542940118</c:v>
+                  <c:v>1.9072478459199189</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0799936835218875</c:v>
+                  <c:v>1.5197604790419161</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7846069708251824</c:v>
+                  <c:v>1.6251229105211407</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-39A7-4D67-B636-EDCF6282012C}"/>
             </c:ext>
@@ -7968,11 +7948,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="330022008"/>
-        <c:axId val="330025144"/>
+        <c:axId val="324912592"/>
+        <c:axId val="324917688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="330018872"/>
+        <c:axId val="324448536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8014,7 +7994,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330021224"/>
+        <c:crossAx val="324448928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8022,7 +8002,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="330021224"/>
+        <c:axId val="324448928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8072,12 +8052,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330018872"/>
+        <c:crossAx val="324448536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="330025144"/>
+        <c:axId val="324917688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8113,12 +8093,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330022008"/>
+        <c:crossAx val="324912592"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="330022008"/>
+        <c:axId val="324912592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8155,7 +8135,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330025144"/>
+        <c:crossAx val="324917688"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8172,7 +8152,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8250,7 +8229,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8303,7 +8282,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8436,9 +8414,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8502,39 +8479,39 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>30519</c:v>
+                  <c:v>1827</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32971</c:v>
+                  <c:v>1056</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31616</c:v>
+                  <c:v>689</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33330</c:v>
+                  <c:v>1229</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37803</c:v>
+                  <c:v>1167</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45319</c:v>
+                  <c:v>1683</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>54641</c:v>
+                  <c:v>1190</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>65755</c:v>
+                  <c:v>1020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81602</c:v>
+                  <c:v>2324</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>97843</c:v>
+                  <c:v>1856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6B5D-49BE-8C18-62B89DC40B3C}"/>
             </c:ext>
@@ -8630,9 +8607,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8696,39 +8672,39 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>21863</c:v>
+                  <c:v>1101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22074</c:v>
+                  <c:v>624</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12193</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20539</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25489</c:v>
+                  <c:v>843</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16571</c:v>
+                  <c:v>1207</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39240</c:v>
+                  <c:v>852</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44281</c:v>
+                  <c:v>1985</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>61271</c:v>
+                  <c:v>1890</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>72738</c:v>
+                  <c:v>1894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-6B5D-49BE-8C18-62B89DC40B3C}"/>
             </c:ext>
@@ -8827,9 +8803,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8893,39 +8868,39 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>24576</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27017</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23724</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24982</c:v>
+                  <c:v>647</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31378</c:v>
+                  <c:v>536</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32252</c:v>
+                  <c:v>1221</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38260</c:v>
+                  <c:v>1084</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45234</c:v>
+                  <c:v>979</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56118</c:v>
+                  <c:v>1290</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>65149</c:v>
+                  <c:v>1276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-6B5D-49BE-8C18-62B89DC40B3C}"/>
             </c:ext>
@@ -8941,11 +8916,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="330019656"/>
-        <c:axId val="330023576"/>
+        <c:axId val="324913768"/>
+        <c:axId val="324912984"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="330023576"/>
+        <c:axId val="324912984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8995,12 +8970,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330019656"/>
+        <c:crossAx val="324913768"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="330019656"/>
+        <c:axId val="324913768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9042,7 +9017,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330023576"/>
+        <c:crossAx val="324912984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9059,7 +9034,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9137,7 +9111,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9175,7 +9149,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9270,9 +9243,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9336,40 +9308,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>15.34988871804593</c:v>
+                  <c:v>12.208915502328676</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.805132726935215</c:v>
+                  <c:v>7.094133697135061</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.9885139162730985</c:v>
+                  <c:v>3.5406475658047984</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.616225939173404</c:v>
+                  <c:v>10.769414861792509</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.182891751094633</c:v>
+                  <c:v>8.8383308869784027</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.4018265545802944</c:v>
+                  <c:v>12.960377966283689</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.693658482111699</c:v>
+                  <c:v>8.99113550021106</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.696111326835064</c:v>
+                  <c:v>18.195984966541388</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.356757015869782</c:v>
+                  <c:v>15.782881002087683</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.936958666812849</c:v>
+                  <c:v>7.2091961023142508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3D6F-45DB-907A-A59C0CB47A38}"/>
             </c:ext>
@@ -9435,9 +9407,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9501,40 +9472,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>27.694314957438184</c:v>
+                  <c:v>40.792886254168209</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.585672280139001</c:v>
+                  <c:v>20.2729044834308</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.225453591898406</c:v>
+                  <c:v>10.745846588900672</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.527577537952972</c:v>
+                  <c:v>29.791459781529294</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.060209095780461</c:v>
+                  <c:v>25.553197938769323</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.033124591987235</c:v>
+                  <c:v>35.720627404557561</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38.346525945470539</c:v>
+                  <c:v>29.399585921325052</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37.429841763592101</c:v>
+                  <c:v>50.96277278562259</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43.152238217314142</c:v>
+                  <c:v>41.657482918227906</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43.675469250999747</c:v>
+                  <c:v>31.023751023751025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3D6F-45DB-907A-A59C0CB47A38}"/>
             </c:ext>
@@ -9600,9 +9571,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9666,40 +9636,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>25.700000762939453</c:v>
+                  <c:v>22.989999771118164</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.790000915527344</c:v>
+                  <c:v>12.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.159999847412109</c:v>
+                  <c:v>6.8600001335144043</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.810000419616699</c:v>
+                  <c:v>18.329999923706055</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.360000610351562</c:v>
+                  <c:v>15.489999771118164</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.489999771118164</c:v>
+                  <c:v>19.989999771118164</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.690000534057617</c:v>
+                  <c:v>14.409999847412109</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.899999618530273</c:v>
+                  <c:v>29.430000305175781</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.799999237060547</c:v>
+                  <c:v>24.680000305175781</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33.229999542236328</c:v>
+                  <c:v>14.380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3D6F-45DB-907A-A59C0CB47A38}"/>
             </c:ext>
@@ -9714,11 +9684,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="330022792"/>
-        <c:axId val="330026320"/>
+        <c:axId val="324912200"/>
+        <c:axId val="324911024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="330022792"/>
+        <c:axId val="324912200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9779,7 +9749,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330026320"/>
+        <c:crossAx val="324911024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9787,7 +9757,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="330026320"/>
+        <c:axId val="324911024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9848,7 +9818,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330022792"/>
+        <c:crossAx val="324912200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9862,7 +9832,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9893,14 +9862,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -9939,7 +9908,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9953,7 +9922,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10086,9 +10054,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10152,39 +10119,39 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8470</c:v>
+                  <c:v>159.33399963378906</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8399</c:v>
+                  <c:v>156.16700744628906</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8254</c:v>
+                  <c:v>152.28799438476563</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8013</c:v>
+                  <c:v>145.66799926757813</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7832</c:v>
+                  <c:v>138.31700134277344</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7794</c:v>
+                  <c:v>135.41700744628906</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7753</c:v>
+                  <c:v>124.65200042724609</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7683</c:v>
+                  <c:v>118.48100280761719</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7608</c:v>
+                  <c:v>112.08399963378906</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7540</c:v>
+                  <c:v>109.23500061035156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2C55-4179-91AC-A4368A515C12}"/>
             </c:ext>
@@ -10201,11 +10168,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="330024752"/>
-        <c:axId val="330025536"/>
+        <c:axId val="324911416"/>
+        <c:axId val="324916120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="330024752"/>
+        <c:axId val="324911416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10247,7 +10214,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330025536"/>
+        <c:crossAx val="324916120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10255,7 +10222,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="330025536"/>
+        <c:axId val="324916120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10305,7 +10272,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330024752"/>
+        <c:crossAx val="324911416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10319,14 +10286,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -17466,7 +17433,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17502,7 +17469,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17538,7 +17505,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17574,7 +17541,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17610,7 +17577,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17646,7 +17613,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17682,7 +17649,7 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17718,7 +17685,7 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17754,7 +17721,7 @@
         <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17790,7 +17757,7 @@
         <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17826,7 +17793,7 @@
         <xdr:cNvPr id="12" name="Chart 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17862,7 +17829,7 @@
         <xdr:cNvPr id="13" name="Chart 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17898,7 +17865,7 @@
         <xdr:cNvPr id="14" name="Chart 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30EF526C-4CEE-D15C-6E9C-073E5DDA42D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30EF526C-4CEE-D15C-6E9C-073E5DDA42D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17939,7 +17906,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17983,7 +17950,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18027,7 +17994,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18068,7 +18035,7 @@
             <xdr:cNvPr id="5" name="TextBox 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18110,7 +18077,7 @@
                   <m:oMathParaPr>
                     <m:jc m:val="centerGroup"/>
                   </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMath>
                     <m:r>
                       <a:rPr lang="en-US" sz="2000" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -18204,7 +18171,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -18277,7 +18244,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18321,7 +18288,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18370,7 +18337,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18479,6 +18446,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -18514,6 +18498,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -18689,27 +18690,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:V47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="75" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.08984375" customWidth="1"/>
-    <col min="5" max="5" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.54296875" customWidth="1"/>
-    <col min="20" max="20" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.90625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="31.453125"/>
+    <col min="4" max="4" customWidth="true" width="7.08984375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.1796875"/>
+    <col min="6" max="6" customWidth="true" width="19.54296875"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="7.453125"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="15" thickBot="1"/>
     <row r="3" spans="2:22">
       <c r="B3" s="139" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C3" s="140"/>
       <c r="D3" s="140"/>
@@ -18863,49 +18864,49 @@
       <c r="E12" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="F12" s="123">
+      <c r="F12" s="123" t="n">
         <f>AVERAGE(L12:P12)</f>
         <v>14.617062409241935</v>
       </c>
-      <c r="G12" s="119">
+      <c r="G12" s="119" t="n">
         <f>Financials!D76</f>
         <v>15.34988871804593</v>
       </c>
-      <c r="H12" s="119">
+      <c r="H12" s="119" t="n">
         <f>Financials!E76</f>
         <v>12.805132726935215</v>
       </c>
-      <c r="I12" s="119">
+      <c r="I12" s="119" t="n">
         <f>Financials!F76</f>
         <v>6.9885139162730985</v>
       </c>
-      <c r="J12" s="119">
+      <c r="J12" s="119" t="n">
         <f>Financials!G76</f>
         <v>10.616225939173404</v>
       </c>
-      <c r="K12" s="119">
+      <c r="K12" s="119" t="n">
         <f>Financials!H76</f>
         <v>10.182891751094633</v>
       </c>
-      <c r="L12" s="119">
+      <c r="L12" s="119" t="n">
         <f>Financials!I76</f>
-        <v>6.4018265545802944</v>
-      </c>
-      <c r="M12" s="119">
+        <v>6.401826554580294</v>
+      </c>
+      <c r="M12" s="119" t="n">
         <f>Financials!J76</f>
-        <v>13.693658482111699</v>
-      </c>
-      <c r="N12" s="119">
+        <v>13.6936584821117</v>
+      </c>
+      <c r="N12" s="119" t="n">
         <f>Financials!K76</f>
         <v>14.696111326835064</v>
       </c>
-      <c r="O12" s="119">
+      <c r="O12" s="119" t="n">
         <f>Financials!L76</f>
         <v>18.356757015869782</v>
       </c>
-      <c r="P12" s="119">
+      <c r="P12" s="119" t="n">
         <f>Financials!M76</f>
-        <v>19.936958666812849</v>
+        <v>19.93695866681285</v>
       </c>
     </row>
     <row r="13" spans="2:22">
@@ -18937,49 +18938,49 @@
       <c r="E14" s="46">
         <v>0.08</v>
       </c>
-      <c r="F14" s="124">
+      <c r="F14" s="124" t="n">
         <f>AVERAGE(L14:P14)</f>
-        <v>36.527439953872758</v>
-      </c>
-      <c r="G14" s="40">
+        <v>36.52743995387276</v>
+      </c>
+      <c r="G14" s="40" t="n">
         <f>Financials!D77</f>
         <v>27.694314957438184</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="40" t="n">
         <f>Financials!E77</f>
-        <v>24.585672280139001</v>
-      </c>
-      <c r="I14" s="40">
+        <v>24.585672280139</v>
+      </c>
+      <c r="I14" s="40" t="n">
         <f>Financials!F77</f>
         <v>15.225453591898406</v>
       </c>
-      <c r="J14" s="40">
+      <c r="J14" s="40" t="n">
         <f>Financials!G77</f>
         <v>28.527577537952972</v>
       </c>
-      <c r="K14" s="40">
+      <c r="K14" s="40" t="n">
         <f>Financials!H77</f>
-        <v>29.060209095780461</v>
-      </c>
-      <c r="L14" s="40">
+        <v>29.06020909578046</v>
+      </c>
+      <c r="L14" s="40" t="n">
         <f>Financials!I77</f>
         <v>20.033124591987235</v>
       </c>
-      <c r="M14" s="40">
+      <c r="M14" s="40" t="n">
         <f>Financials!J77</f>
-        <v>38.346525945470539</v>
-      </c>
-      <c r="N14" s="40">
+        <v>38.34652594547054</v>
+      </c>
+      <c r="N14" s="40" t="n">
         <f>Financials!K77</f>
-        <v>37.429841763592101</v>
-      </c>
-      <c r="O14" s="40">
+        <v>37.4298417635921</v>
+      </c>
+      <c r="O14" s="40" t="n">
         <f>Financials!L77</f>
-        <v>43.152238217314142</v>
-      </c>
-      <c r="P14" s="40">
+        <v>43.15223821731414</v>
+      </c>
+      <c r="P14" s="40" t="n">
         <f>Financials!M77</f>
-        <v>43.675469250999747</v>
+        <v>43.67546925099975</v>
       </c>
       <c r="R14" s="44"/>
       <c r="S14" s="44"/>
@@ -19014,53 +19015,53 @@
         <f>T11</f>
         <v>J</v>
       </c>
-      <c r="E16" s="47">
+      <c r="E16" s="47" t="n">
         <f>WACC!$C$25</f>
         <v>0.1049774123316126</v>
       </c>
-      <c r="F16" s="124">
+      <c r="F16" s="124" t="n">
         <f>AVERAGE(L16:P16)</f>
         <v>24.421999740600587</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16" s="40" t="n">
         <f>Financials!D78</f>
         <v>25.700000762939453</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16" s="40" t="n">
         <f>Financials!E78</f>
         <v>21.790000915527344</v>
       </c>
-      <c r="I16" s="40">
+      <c r="I16" s="40" t="n">
         <f>Financials!F78</f>
-        <v>11.159999847412109</v>
-      </c>
-      <c r="J16" s="40">
+        <v>11.15999984741211</v>
+      </c>
+      <c r="J16" s="40" t="n">
         <f>Financials!G78</f>
-        <v>14.810000419616699</v>
-      </c>
-      <c r="K16" s="40">
+        <v>14.8100004196167</v>
+      </c>
+      <c r="K16" s="40" t="n">
         <f>Financials!H78</f>
         <v>16.360000610351562</v>
       </c>
-      <c r="L16" s="40">
+      <c r="L16" s="40" t="n">
         <f>Financials!I78</f>
         <v>11.489999771118164</v>
       </c>
-      <c r="M16" s="40">
+      <c r="M16" s="40" t="n">
         <f>Financials!J78</f>
         <v>22.690000534057617</v>
       </c>
-      <c r="N16" s="40">
+      <c r="N16" s="40" t="n">
         <f>Financials!K78</f>
         <v>23.899999618530273</v>
       </c>
-      <c r="O16" s="40">
+      <c r="O16" s="40" t="n">
         <f>Financials!L78</f>
         <v>30.799999237060547</v>
       </c>
-      <c r="P16" s="40">
+      <c r="P16" s="40" t="n">
         <f>Financials!M78</f>
-        <v>33.229999542236328</v>
+        <v>33.22999954223633</v>
       </c>
       <c r="R16" s="44"/>
       <c r="S16" s="44"/>
@@ -19101,47 +19102,47 @@
       <c r="E18" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="125">
+      <c r="F18" s="125" t="n">
         <f>AVERAGE(L18:P18)</f>
-        <v>2.3620010448176352</v>
-      </c>
-      <c r="G18" s="42">
+        <v>2.362001044817635</v>
+      </c>
+      <c r="G18" s="42" t="n">
         <f>Financials!D59</f>
         <v>2.7117620333003716</v>
       </c>
-      <c r="H18" s="42">
+      <c r="H18" s="42" t="n">
         <f>Financials!E59</f>
         <v>2.504021917808219</v>
       </c>
-      <c r="I18" s="42">
+      <c r="I18" s="42" t="n">
         <f>Financials!F59</f>
         <v>2.4734022196708763</v>
       </c>
-      <c r="J18" s="42">
+      <c r="J18" s="42" t="n">
         <f>Financials!G59</f>
         <v>2.3528817157201343</v>
       </c>
-      <c r="K18" s="42">
+      <c r="K18" s="42" t="n">
         <f>Financials!H59</f>
-        <v>2.9185756570095971</v>
-      </c>
-      <c r="L18" s="42">
+        <v>2.918575657009597</v>
+      </c>
+      <c r="L18" s="42" t="n">
         <f>Financials!I59</f>
-        <v>2.9008001641362329</v>
-      </c>
-      <c r="M18" s="42">
+        <v>2.900800164136233</v>
+      </c>
+      <c r="M18" s="42" t="n">
         <f>Financials!J59</f>
         <v>2.5288389513108616</v>
       </c>
-      <c r="N18" s="42">
+      <c r="N18" s="42" t="n">
         <f>Financials!K59</f>
         <v>2.5157654542940118</v>
       </c>
-      <c r="O18" s="42">
+      <c r="O18" s="42" t="n">
         <f>Financials!L59</f>
         <v>2.0799936835218875</v>
       </c>
-      <c r="P18" s="42">
+      <c r="P18" s="42" t="n">
         <f>Financials!M59</f>
         <v>1.7846069708251824</v>
       </c>
@@ -19174,7 +19175,7 @@
     <row r="20" spans="2:20" ht="18.5">
       <c r="B20" s="152"/>
       <c r="C20" s="36" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D20" s="55" t="str">
         <f>U11</f>
@@ -19183,47 +19184,47 @@
       <c r="E20" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="F20" s="125">
+      <c r="F20" s="125" t="n">
         <f>AVERAGE(L20:P20)</f>
         <v>1.6035900896094752</v>
       </c>
-      <c r="G20" s="42">
+      <c r="G20" s="42" t="n">
         <f>Financials!D58</f>
-        <v>0.80420297932711793</v>
-      </c>
-      <c r="H20" s="42">
+        <v>0.8042029793271179</v>
+      </c>
+      <c r="H20" s="42" t="n">
         <f>Financials!E58</f>
-        <v>0.91998574356232732</v>
-      </c>
-      <c r="I20" s="42">
+        <v>0.9199857435623273</v>
+      </c>
+      <c r="I20" s="42" t="n">
         <f>Financials!F58</f>
-        <v>1.1786396613513479</v>
-      </c>
-      <c r="J20" s="42">
+        <v>1.178639661351348</v>
+      </c>
+      <c r="J20" s="42" t="n">
         <f>Financials!G58</f>
         <v>1.6871675208689252</v>
       </c>
-      <c r="K20" s="42">
+      <c r="K20" s="42" t="n">
         <f>Financials!H58</f>
         <v>1.8538267720126325</v>
       </c>
-      <c r="L20" s="42">
+      <c r="L20" s="42" t="n">
         <f>Financials!I58</f>
         <v>2.1292826228874007</v>
       </c>
-      <c r="M20" s="42">
+      <c r="M20" s="42" t="n">
         <f>Financials!J58</f>
         <v>1.8003127137691781</v>
       </c>
-      <c r="N20" s="42">
+      <c r="N20" s="42" t="n">
         <f>Financials!K58</f>
         <v>1.5469214903976196</v>
       </c>
-      <c r="O20" s="42">
+      <c r="O20" s="42" t="n">
         <f>Financials!L58</f>
         <v>1.3507549933797223</v>
       </c>
-      <c r="P20" s="42">
+      <c r="P20" s="42" t="n">
         <f>Financials!M58</f>
         <v>1.1906786276134549</v>
       </c>
@@ -19256,58 +19257,58 @@
     <row r="22" spans="2:20" ht="18.5">
       <c r="B22" s="132"/>
       <c r="C22" s="36" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D22" s="54" t="str">
         <f>T11</f>
         <v>J</v>
       </c>
       <c r="E22" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="F22" s="125">
+        <v>161</v>
+      </c>
+      <c r="F22" s="125" t="n">
         <f>AVERAGE(L22:P22)</f>
-        <v>0.96289258387210952</v>
-      </c>
-      <c r="G22" s="42">
+        <v>0.9628925838721095</v>
+      </c>
+      <c r="G22" s="42" t="n">
         <f>Financials!D60</f>
         <v>0.41289033061371605</v>
       </c>
-      <c r="H22" s="42">
+      <c r="H22" s="42" t="n">
         <f>Financials!E60</f>
         <v>0.6261563191895908</v>
       </c>
-      <c r="I22" s="42">
+      <c r="I22" s="42" t="n">
         <f>Financials!F60</f>
-        <v>0.87955465587044535</v>
-      </c>
-      <c r="J22" s="42">
+        <v>0.8795546558704453</v>
+      </c>
+      <c r="J22" s="42" t="n">
         <f>Financials!G60</f>
         <v>1.2168316831683168</v>
       </c>
-      <c r="K22" s="42">
+      <c r="K22" s="42" t="n">
         <f>Financials!H60</f>
-        <v>2.0123535169166469</v>
-      </c>
-      <c r="L22" s="42">
+        <v>2.012353516916647</v>
+      </c>
+      <c r="L22" s="42" t="n">
         <f>Financials!I60</f>
-        <v>1.5940775392219599</v>
-      </c>
-      <c r="M22" s="42">
+        <v>1.59407753922196</v>
+      </c>
+      <c r="M22" s="42" t="n">
         <f>Financials!J60</f>
-        <v>1.2199996339744881</v>
-      </c>
-      <c r="N22" s="42">
+        <v>1.219999633974488</v>
+      </c>
+      <c r="N22" s="42" t="n">
         <f>Financials!K60</f>
-        <v>0.90606037563683373</v>
-      </c>
-      <c r="O22" s="42">
+        <v>0.9060603756368337</v>
+      </c>
+      <c r="O22" s="42" t="n">
         <f>Financials!L60</f>
-        <v>0.61363692066370923</v>
-      </c>
-      <c r="P22" s="42">
+        <v>0.6136369206637092</v>
+      </c>
+      <c r="P22" s="42" t="n">
         <f>Financials!M60</f>
-        <v>0.48068844986355691</v>
+        <v>0.4806884498635569</v>
       </c>
       <c r="Q22" s="44"/>
       <c r="R22" s="44"/>
@@ -19350,45 +19351,45 @@
         <v>69</v>
       </c>
       <c r="F24" s="50"/>
-      <c r="G24" s="40">
+      <c r="G24" s="40" t="n">
         <f>Financials!D12</f>
-        <v>8470</v>
-      </c>
-      <c r="H24" s="40">
+        <v>8470.0</v>
+      </c>
+      <c r="H24" s="40" t="n">
         <f>Financials!E12</f>
-        <v>8399</v>
-      </c>
-      <c r="I24" s="40">
+        <v>8399.0</v>
+      </c>
+      <c r="I24" s="40" t="n">
         <f>Financials!F12</f>
-        <v>8254</v>
-      </c>
-      <c r="J24" s="40">
+        <v>8254.0</v>
+      </c>
+      <c r="J24" s="40" t="n">
         <f>Financials!G12</f>
-        <v>8013</v>
-      </c>
-      <c r="K24" s="40">
+        <v>8013.0</v>
+      </c>
+      <c r="K24" s="40" t="n">
         <f>Financials!H12</f>
-        <v>7832</v>
-      </c>
-      <c r="L24" s="40">
+        <v>7832.0</v>
+      </c>
+      <c r="L24" s="40" t="n">
         <f>Financials!I12</f>
-        <v>7794</v>
-      </c>
-      <c r="M24" s="40">
+        <v>7794.0</v>
+      </c>
+      <c r="M24" s="40" t="n">
         <f>Financials!J12</f>
-        <v>7753</v>
-      </c>
-      <c r="N24" s="40">
+        <v>7753.0</v>
+      </c>
+      <c r="N24" s="40" t="n">
         <f>Financials!K12</f>
-        <v>7683</v>
-      </c>
-      <c r="O24" s="40">
+        <v>7683.0</v>
+      </c>
+      <c r="O24" s="40" t="n">
         <f>Financials!L12</f>
-        <v>7608</v>
-      </c>
-      <c r="P24" s="40">
+        <v>7608.0</v>
+      </c>
+      <c r="P24" s="40" t="n">
         <f>Financials!M12</f>
-        <v>7540</v>
+        <v>7540.0</v>
       </c>
       <c r="Q24" s="44"/>
       <c r="R24" s="44"/>
@@ -19428,49 +19429,49 @@
         <v>L</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="F26" s="57">
+        <v>163</v>
+      </c>
+      <c r="F26" s="57" t="n">
         <f>AVERAGEIF(L26:P26,"&lt;100")</f>
         <v>34.169999313354495</v>
       </c>
-      <c r="G26" s="44">
+      <c r="G26" s="44" t="n">
         <f>Financials!D81</f>
         <v>14.010000228881836</v>
       </c>
-      <c r="H26" s="44">
+      <c r="H26" s="44" t="n">
         <f>Financials!E81</f>
         <v>18.219999313354492</v>
       </c>
-      <c r="I26" s="44">
+      <c r="I26" s="44" t="n">
         <f>Financials!F81</f>
-        <v>36.740001678466797</v>
-      </c>
-      <c r="J26" s="44">
+        <v>36.7400016784668</v>
+      </c>
+      <c r="J26" s="44" t="n">
         <f>Financials!G81</f>
         <v>29.729999542236328</v>
       </c>
-      <c r="K26" s="44">
+      <c r="K26" s="44" t="n">
         <f>Financials!H81</f>
         <v>30.229999542236328</v>
       </c>
-      <c r="L26" s="44">
+      <c r="L26" s="44" t="n">
         <f>Financials!I81</f>
-        <v>41.799999237060547</v>
-      </c>
-      <c r="M26" s="44">
+        <v>41.79999923706055</v>
+      </c>
+      <c r="M26" s="44" t="n">
         <f>Financials!J81</f>
         <v>29.75</v>
       </c>
-      <c r="N26" s="44">
+      <c r="N26" s="44" t="n">
         <f>Financials!K81</f>
         <v>35.869998931884766</v>
       </c>
-      <c r="O26" s="44">
+      <c r="O26" s="44" t="n">
         <f>Financials!L81</f>
         <v>37.619998931884766</v>
       </c>
-      <c r="P26" s="44">
+      <c r="P26" s="44" t="n">
         <f>Financials!M81</f>
         <v>25.809999465942383</v>
       </c>
@@ -19510,49 +19511,49 @@
         <v>L</v>
       </c>
       <c r="E28" s="51" t="s">
-        <v>161</v>
-      </c>
-      <c r="F28" s="57">
+        <v>164</v>
+      </c>
+      <c r="F28" s="57" t="n">
         <f>AVERAGEIF(L28:P28, "&lt;100")</f>
         <v>23.661999893188476</v>
       </c>
-      <c r="G28" s="44">
+      <c r="G28" s="44" t="n">
         <f>Financials!D82</f>
         <v>11.079999923706055</v>
       </c>
-      <c r="H28" s="44">
+      <c r="H28" s="44" t="n">
         <f>Financials!E82</f>
         <v>12.020000457763672</v>
       </c>
-      <c r="I28" s="44">
+      <c r="I28" s="44" t="n">
         <f>Financials!F82</f>
         <v>15.479999542236328</v>
       </c>
-      <c r="J28" s="44">
+      <c r="J28" s="44" t="n">
         <f>Financials!G82</f>
         <v>13.739999771118164</v>
       </c>
-      <c r="K28" s="44">
+      <c r="K28" s="44" t="n">
         <f>Financials!H82</f>
         <v>16.540000915527344</v>
       </c>
-      <c r="L28" s="44">
+      <c r="L28" s="44" t="n">
         <f>Financials!I82</f>
         <v>17.530000686645508</v>
       </c>
-      <c r="M28" s="44">
+      <c r="M28" s="44" t="n">
         <f>Financials!J82</f>
         <v>23.309999465942383</v>
       </c>
-      <c r="N28" s="44">
+      <c r="N28" s="44" t="n">
         <f>Financials!K82</f>
         <v>25.760000228881836</v>
       </c>
-      <c r="O28" s="44">
+      <c r="O28" s="44" t="n">
         <f>Financials!L82</f>
         <v>31.149999618530273</v>
       </c>
-      <c r="P28" s="44">
+      <c r="P28" s="44" t="n">
         <f>Financials!M82</f>
         <v>20.559999465942383</v>
       </c>
@@ -19590,7 +19591,7 @@
       <c r="E30" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="127">
+      <c r="F30" s="127" t="n">
         <f>Financials!$C$83</f>
         <v>2.130000114440918</v>
       </c>
@@ -19626,7 +19627,7 @@
       <c r="E32" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="52">
+      <c r="F32" s="52" t="n">
         <f>Financials!D63</f>
         <v>0.15098647553880373</v>
       </c>
@@ -19643,7 +19644,7 @@
       <c r="E33" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F33" s="52">
+      <c r="F33" s="52" t="n">
         <f>Financials!D64</f>
         <v>0.10240114479019535</v>
       </c>
@@ -19667,7 +19668,7 @@
       <c r="E35" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F35" s="52">
+      <c r="F35" s="52" t="n">
         <f>Financials!D69</f>
         <v>0.16640638518275286</v>
       </c>
@@ -19684,7 +19685,7 @@
       <c r="E36" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F36" s="52">
+      <c r="F36" s="52" t="n">
         <f>Financials!D70</f>
         <v>0.26238519394954185</v>
       </c>
@@ -19709,9 +19710,9 @@
       <c r="E38" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F38" s="52">
+      <c r="F38" s="52" t="n">
         <f>Financials!D65</f>
-        <v>0.34425768397181389</v>
+        <v>0.3442576839718139</v>
       </c>
     </row>
     <row r="39" spans="2:17" ht="18.5">
@@ -19726,7 +19727,7 @@
       <c r="E39" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F39" s="52">
+      <c r="F39" s="52" t="n">
         <f>Financials!D66</f>
         <v>0.12773006839414247</v>
       </c>
@@ -19750,7 +19751,7 @@
       <c r="E41" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F41" s="52">
+      <c r="F41" s="52" t="n">
         <f>Financials!D67</f>
         <v>0.12431773933039225</v>
       </c>
@@ -19767,9 +19768,9 @@
       <c r="E42" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F42" s="52">
+      <c r="F42" s="52" t="n">
         <f>Financials!D68</f>
-        <v>9.7995086932553654E-2</v>
+        <v>0.09799508693255365</v>
       </c>
     </row>
     <row r="43" spans="2:17">
@@ -19789,7 +19790,7 @@
       <c r="E44" s="101">
         <v>0.75</v>
       </c>
-      <c r="F44" s="103">
+      <c r="F44" s="103" t="n">
         <f>Financials!$D$73</f>
         <v>0.33242352724162433</v>
       </c>
@@ -19806,9 +19807,9 @@
       <c r="E45" s="101" t="s">
         <v>134</v>
       </c>
-      <c r="F45" s="103">
+      <c r="F45" s="103" t="n">
         <f>Financials!D71</f>
-        <v>7.3864800952310627E-2</v>
+        <v>0.07386480095231063</v>
       </c>
     </row>
     <row r="46" spans="2:17" ht="18.5">
@@ -19823,9 +19824,9 @@
       <c r="E46" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F46" s="103">
+      <c r="F46" s="103" t="n">
         <f>Financials!D72</f>
-        <v>8.895994876521883E-2</v>
+        <v>0.08895994876521883</v>
       </c>
     </row>
     <row r="47" spans="2:17" ht="18.5">
@@ -19840,7 +19841,7 @@
       <c r="E47" s="101">
         <v>0.12</v>
       </c>
-      <c r="F47" s="102">
+      <c r="F47" s="102" t="n">
         <f>F45+F46</f>
         <v>0.16282474971752947</v>
       </c>
@@ -19861,16 +19862,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B94" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B62" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T129" sqref="T129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.1796875"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19879,7 +19880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:P27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -19888,9 +19889,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="61.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="61.453125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="32.6328125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.81640625"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="20" thickBot="1">
@@ -19918,7 +19919,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="P4" t="s">
+      <c r="P4" t="s" s="0">
         <v>2</v>
       </c>
     </row>
@@ -19926,56 +19927,56 @@
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="58">
-        <v>2110</v>
+      <c r="C5" s="58" t="n">
+        <v>2110.0</v>
       </c>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="59">
-        <v>95082000</v>
+      <c r="C6" s="59" t="n">
+        <v>9.5082E7</v>
       </c>
     </row>
     <row r="7" spans="2:16">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="59">
-        <v>103216000</v>
+      <c r="C7" s="59" t="n">
+        <v>1.03216E8</v>
       </c>
     </row>
     <row r="8" spans="2:16">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="59">
-        <v>1989000</v>
+      <c r="C8" s="59" t="n">
+        <v>1989000.0</v>
       </c>
     </row>
     <row r="9" spans="2:16">
       <c r="B9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="59">
-        <v>82588000</v>
+      <c r="C9" s="59" t="n">
+        <v>8.2588E7</v>
       </c>
     </row>
     <row r="10" spans="2:16">
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="59">
-        <v>15139000</v>
+      <c r="C10" s="59" t="n">
+        <v>1.5139E7</v>
       </c>
     </row>
     <row r="11" spans="2:16">
       <c r="B11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="60">
-        <v>0.93000000715255737</v>
+      <c r="C11" s="60" t="n">
+        <v>0.9300000071525574</v>
       </c>
       <c r="G11" s="33"/>
     </row>
@@ -20000,7 +20001,7 @@
       <c r="C15" s="14">
         <v>0.12</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" t="s" s="0">
         <v>10</v>
       </c>
     </row>
@@ -20008,25 +20009,25 @@
       <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="11" t="n">
         <f>SUM(C6:C7)</f>
-        <v>198298000</v>
+        <v>1.98298E8</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="18" thickTop="1" thickBot="1">
       <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="12" t="n">
         <f>C8/C17</f>
-        <v>1.0030358349554711E-2</v>
+        <v>0.010030358349554711</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="18" thickTop="1" thickBot="1">
       <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="12" t="n">
         <f>C14+C11*(C15-C14)</f>
         <v>0.11391000062227247</v>
       </c>
@@ -20035,11 +20036,11 @@
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="12" t="n">
         <f>C8/C17</f>
-        <v>1.0030358349554711E-2</v>
-      </c>
-      <c r="K20" t="s">
+        <v>0.010030358349554711</v>
+      </c>
+      <c r="K20" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -20047,11 +20048,11 @@
       <c r="B21" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="11" t="n">
         <f>C17+C5*1000000</f>
-        <v>2308298000</v>
-      </c>
-      <c r="K21" t="s">
+        <v>2.308298E9</v>
+      </c>
+      <c r="K21" t="s" s="0">
         <v>11</v>
       </c>
     </row>
@@ -20059,11 +20060,11 @@
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="12" t="n">
         <f>C5*1000000/C21</f>
-        <v>0.91409341428186486</v>
-      </c>
-      <c r="K22" t="s">
+        <v>0.9140934142818649</v>
+      </c>
+      <c r="K22" t="s" s="0">
         <v>12</v>
       </c>
     </row>
@@ -20071,9 +20072,9 @@
       <c r="B23" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="12" t="n">
         <f>C17/C21</f>
-        <v>8.5906585718135184E-2</v>
+        <v>0.08590658571813518</v>
       </c>
     </row>
     <row r="24" spans="2:15" ht="14.5" customHeight="1" thickTop="1">
@@ -20087,7 +20088,7 @@
       <c r="B25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="17" t="n">
         <f>C23*C20*(1-C18)+C22*C19</f>
         <v>0.1049774123316126</v>
       </c>
@@ -20119,23 +20120,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:L74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="82" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="62.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="62.26953125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.90625"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.1796875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="9" max="12" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.81640625"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="20" thickBot="1">
@@ -20148,7 +20149,7 @@
       <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="20" t="n">
         <f>WACC!C25</f>
         <v>0.1049774123316126</v>
       </c>
@@ -20165,15 +20166,15 @@
       <c r="B6" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="65">
-        <v>0.1</v>
+      <c r="C6" s="65" t="n">
+        <v>0.07999999821186066</v>
       </c>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="13" t="n">
         <f>AVERAGEIF(C28:L28, "&lt;0.5")</f>
         <v>0.26575848676259667</v>
       </c>
@@ -20182,7 +20183,7 @@
       <c r="B8" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="13" t="n">
         <f>AVERAGEIF(C29:L29,"&lt;2")</f>
         <v>1.2495490805451668</v>
       </c>
@@ -20191,24 +20192,24 @@
       <c r="B9" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="66">
-        <v>20</v>
+      <c r="C9" s="66" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="67">
-        <v>7.0000000298023224E-2</v>
+      <c r="C10" s="67" t="n">
+        <v>0.07000000029802322</v>
       </c>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="59">
-        <v>7635409408</v>
+      <c r="C11" s="59" t="n">
+        <v>7.635409408E9</v>
       </c>
     </row>
     <row r="12" spans="2:12">
@@ -20258,45 +20259,45 @@
       <c r="B16" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="21" t="n">
         <f>Financials!D3</f>
-        <v>77849</v>
-      </c>
-      <c r="D16" s="21">
+        <v>77849.0</v>
+      </c>
+      <c r="D16" s="21" t="n">
         <f>Financials!E3</f>
-        <v>86833</v>
-      </c>
-      <c r="E16" s="21">
+        <v>86833.0</v>
+      </c>
+      <c r="E16" s="21" t="n">
         <f>Financials!F3</f>
-        <v>93580</v>
-      </c>
-      <c r="F16" s="21">
+        <v>93580.0</v>
+      </c>
+      <c r="F16" s="21" t="n">
         <f>Financials!G3</f>
-        <v>91154</v>
-      </c>
-      <c r="G16" s="21">
+        <v>91154.0</v>
+      </c>
+      <c r="G16" s="21" t="n">
         <f>Financials!H3</f>
-        <v>96571</v>
-      </c>
-      <c r="H16" s="21">
+        <v>96571.0</v>
+      </c>
+      <c r="H16" s="21" t="n">
         <f>Financials!I3</f>
-        <v>110360</v>
-      </c>
-      <c r="I16" s="21">
+        <v>110360.0</v>
+      </c>
+      <c r="I16" s="21" t="n">
         <f>Financials!J3</f>
-        <v>125843</v>
-      </c>
-      <c r="J16" s="21">
+        <v>125843.0</v>
+      </c>
+      <c r="J16" s="21" t="n">
         <f>Financials!K3</f>
-        <v>143015</v>
-      </c>
-      <c r="K16" s="21">
+        <v>143015.0</v>
+      </c>
+      <c r="K16" s="21" t="n">
         <f>Financials!L3</f>
-        <v>168088</v>
-      </c>
-      <c r="L16" s="21">
+        <v>168088.0</v>
+      </c>
+      <c r="L16" s="21" t="n">
         <f>Financials!M3</f>
-        <v>198270</v>
+        <v>198270.0</v>
       </c>
     </row>
     <row r="17" spans="2:12">
@@ -20304,39 +20305,39 @@
         <v>27</v>
       </c>
       <c r="C17" s="22"/>
-      <c r="D17" s="20">
+      <c r="D17" s="20" t="n">
         <f t="shared" ref="D17:L17" si="0">(D16-C16)/C16</f>
         <v>0.11540289534868785</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>7.7700874091647179E-2</v>
-      </c>
-      <c r="F17" s="20">
+        <v>0.07770087409164718</v>
+      </c>
+      <c r="F17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>-2.592434280829237E-2</v>
-      </c>
-      <c r="G17" s="20">
+        <v>-0.02592434280829237</v>
+      </c>
+      <c r="G17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>5.9426903920837264E-2</v>
-      </c>
-      <c r="H17" s="20">
+        <v>0.059426903920837264</v>
+      </c>
+      <c r="H17" s="20" t="n">
         <f t="shared" si="0"/>
         <v>0.14278613662486667</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>0.14029539688292861</v>
-      </c>
-      <c r="J17" s="20">
+        <v>0.1402953968829286</v>
+      </c>
+      <c r="J17" s="20" t="n">
         <f t="shared" si="0"/>
         <v>0.13645574247276368</v>
       </c>
-      <c r="K17" s="20">
+      <c r="K17" s="20" t="n">
         <f t="shared" si="0"/>
         <v>0.175317274411775</v>
       </c>
-      <c r="L17" s="20">
+      <c r="L17" s="20" t="n">
         <f t="shared" si="0"/>
         <v>0.17956070629670173</v>
       </c>
@@ -20358,45 +20359,45 @@
       <c r="B19" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="21" t="n">
         <f>Financials!D6</f>
-        <v>21863</v>
-      </c>
-      <c r="D19" s="21">
+        <v>21863.0</v>
+      </c>
+      <c r="D19" s="21" t="n">
         <f>Financials!E6</f>
-        <v>22074</v>
-      </c>
-      <c r="E19" s="21">
+        <v>22074.0</v>
+      </c>
+      <c r="E19" s="21" t="n">
         <f>Financials!F6</f>
-        <v>12193</v>
-      </c>
-      <c r="F19" s="21">
+        <v>12193.0</v>
+      </c>
+      <c r="F19" s="21" t="n">
         <f>Financials!G6</f>
-        <v>20539</v>
-      </c>
-      <c r="G19" s="21">
+        <v>20539.0</v>
+      </c>
+      <c r="G19" s="21" t="n">
         <f>Financials!H6</f>
-        <v>25489</v>
-      </c>
-      <c r="H19" s="21">
+        <v>25489.0</v>
+      </c>
+      <c r="H19" s="21" t="n">
         <f>Financials!I6</f>
-        <v>16571</v>
-      </c>
-      <c r="I19" s="21">
+        <v>16571.0</v>
+      </c>
+      <c r="I19" s="21" t="n">
         <f>Financials!J6</f>
-        <v>39240</v>
-      </c>
-      <c r="J19" s="21">
+        <v>39240.0</v>
+      </c>
+      <c r="J19" s="21" t="n">
         <f>Financials!K6</f>
-        <v>44281</v>
-      </c>
-      <c r="K19" s="21">
+        <v>44281.0</v>
+      </c>
+      <c r="K19" s="21" t="n">
         <f>Financials!L6</f>
-        <v>61271</v>
-      </c>
-      <c r="L19" s="21">
+        <v>61271.0</v>
+      </c>
+      <c r="L19" s="21" t="n">
         <f>Financials!M6</f>
-        <v>72738</v>
+        <v>72738.0</v>
       </c>
     </row>
     <row r="20" spans="2:12">
@@ -20404,39 +20405,39 @@
         <v>27</v>
       </c>
       <c r="C20" s="22"/>
-      <c r="D20" s="20">
+      <c r="D20" s="20" t="n">
         <f>(D19-C19)/C19</f>
-        <v>9.6510085532635053E-3</v>
-      </c>
-      <c r="E20" s="20">
+        <v>0.009651008553263505</v>
+      </c>
+      <c r="E20" s="20" t="n">
         <f t="shared" ref="E20:L20" si="1">(E19-D19)/D19</f>
         <v>-0.44763069674730455</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>0.68449110145165259</v>
-      </c>
-      <c r="G20" s="20">
+        <v>0.6844911014516526</v>
+      </c>
+      <c r="G20" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>0.24100491747407371</v>
-      </c>
-      <c r="H20" s="20">
+        <v>0.2410049174740737</v>
+      </c>
+      <c r="H20" s="20" t="n">
         <f t="shared" si="1"/>
         <v>-0.34987641727804153</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="20" t="n">
         <f t="shared" si="1"/>
         <v>1.3679922756623015</v>
       </c>
-      <c r="J20" s="20">
+      <c r="J20" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>0.12846585117227319</v>
-      </c>
-      <c r="K20" s="20">
+        <v>0.1284658511722732</v>
+      </c>
+      <c r="K20" s="20" t="n">
         <f t="shared" si="1"/>
         <v>0.38368600528443353</v>
       </c>
-      <c r="L20" s="20">
+      <c r="L20" s="20" t="n">
         <f t="shared" si="1"/>
         <v>0.18715216007572913</v>
       </c>
@@ -20445,45 +20446,45 @@
       <c r="B22" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="25" t="n">
         <f>Financials!D20</f>
-        <v>24576</v>
-      </c>
-      <c r="D22" s="25">
+        <v>24576.0</v>
+      </c>
+      <c r="D22" s="25" t="n">
         <f>Financials!E20</f>
-        <v>27017</v>
-      </c>
-      <c r="E22" s="25">
+        <v>27017.0</v>
+      </c>
+      <c r="E22" s="25" t="n">
         <f>Financials!F20</f>
-        <v>23724</v>
-      </c>
-      <c r="F22" s="25">
+        <v>23724.0</v>
+      </c>
+      <c r="F22" s="25" t="n">
         <f>Financials!G20</f>
-        <v>24982</v>
-      </c>
-      <c r="G22" s="25">
+        <v>24982.0</v>
+      </c>
+      <c r="G22" s="25" t="n">
         <f>Financials!H20</f>
-        <v>31378</v>
-      </c>
-      <c r="H22" s="25">
+        <v>31378.0</v>
+      </c>
+      <c r="H22" s="25" t="n">
         <f>Financials!I20</f>
-        <v>32252</v>
-      </c>
-      <c r="I22" s="25">
+        <v>32252.0</v>
+      </c>
+      <c r="I22" s="25" t="n">
         <f>Financials!J20</f>
-        <v>38260</v>
-      </c>
-      <c r="J22" s="25">
+        <v>38260.0</v>
+      </c>
+      <c r="J22" s="25" t="n">
         <f>Financials!K20</f>
-        <v>45234</v>
-      </c>
-      <c r="K22" s="25">
+        <v>45234.0</v>
+      </c>
+      <c r="K22" s="25" t="n">
         <f>Financials!L20</f>
-        <v>56118</v>
-      </c>
-      <c r="L22" s="25">
+        <v>56118.0</v>
+      </c>
+      <c r="L22" s="25" t="n">
         <f>Financials!M20</f>
-        <v>65149</v>
+        <v>65149.0</v>
       </c>
     </row>
     <row r="23" spans="2:12">
@@ -20491,39 +20492,39 @@
         <v>27</v>
       </c>
       <c r="C23" s="26"/>
-      <c r="D23" s="26">
+      <c r="D23" s="26" t="n">
         <f>(D22-C22)/C22</f>
-        <v>9.9324544270833329E-2</v>
-      </c>
-      <c r="E23" s="26">
+        <v>0.09932454427083333</v>
+      </c>
+      <c r="E23" s="26" t="n">
         <f t="shared" ref="E23:L23" si="2">(E22-D22)/D22</f>
         <v>-0.12188621978754118</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="26" t="n">
         <f t="shared" si="2"/>
-        <v>5.3026471084134212E-2</v>
-      </c>
-      <c r="G23" s="26">
+        <v>0.05302647108413421</v>
+      </c>
+      <c r="G23" s="26" t="n">
         <f t="shared" si="2"/>
         <v>0.25602433752301657</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="26" t="n">
         <f t="shared" si="2"/>
-        <v>2.7853910383070942E-2</v>
-      </c>
-      <c r="I23" s="26">
+        <v>0.027853910383070942</v>
+      </c>
+      <c r="I23" s="26" t="n">
         <f t="shared" si="2"/>
-        <v>0.18628302120798709</v>
-      </c>
-      <c r="J23" s="26">
+        <v>0.1862830212079871</v>
+      </c>
+      <c r="J23" s="26" t="n">
         <f t="shared" si="2"/>
         <v>0.1822791427077888</v>
       </c>
-      <c r="K23" s="26">
+      <c r="K23" s="26" t="n">
         <f t="shared" si="2"/>
         <v>0.2406154662422072</v>
       </c>
-      <c r="L23" s="26">
+      <c r="L23" s="26" t="n">
         <f t="shared" si="2"/>
         <v>0.16092875726148473</v>
       </c>
@@ -20545,45 +20546,45 @@
       <c r="B25" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="62">
+      <c r="C25" s="62" t="n">
         <f>Financials!D9</f>
-        <v>30519</v>
-      </c>
-      <c r="D25" s="62">
+        <v>30519.0</v>
+      </c>
+      <c r="D25" s="62" t="n">
         <f>Financials!E9</f>
-        <v>32971</v>
-      </c>
-      <c r="E25" s="62">
+        <v>32971.0</v>
+      </c>
+      <c r="E25" s="62" t="n">
         <f>Financials!F9</f>
-        <v>31616</v>
-      </c>
-      <c r="F25" s="62">
+        <v>31616.0</v>
+      </c>
+      <c r="F25" s="62" t="n">
         <f>Financials!G9</f>
-        <v>33330</v>
-      </c>
-      <c r="G25" s="62">
+        <v>33330.0</v>
+      </c>
+      <c r="G25" s="62" t="n">
         <f>Financials!H9</f>
-        <v>37803</v>
-      </c>
-      <c r="H25" s="62">
+        <v>37803.0</v>
+      </c>
+      <c r="H25" s="62" t="n">
         <f>Financials!I9</f>
-        <v>45319</v>
-      </c>
-      <c r="I25" s="62">
+        <v>45319.0</v>
+      </c>
+      <c r="I25" s="62" t="n">
         <f>Financials!J9</f>
-        <v>54641</v>
-      </c>
-      <c r="J25" s="62">
+        <v>54641.0</v>
+      </c>
+      <c r="J25" s="62" t="n">
         <f>Financials!K9</f>
-        <v>65755</v>
-      </c>
-      <c r="K25" s="62">
+        <v>65755.0</v>
+      </c>
+      <c r="K25" s="62" t="n">
         <f>Financials!L9</f>
-        <v>81602</v>
-      </c>
-      <c r="L25" s="62">
+        <v>81602.0</v>
+      </c>
+      <c r="L25" s="62" t="n">
         <f>Financials!M9</f>
-        <v>97843</v>
+        <v>97843.0</v>
       </c>
     </row>
     <row r="26" spans="2:12">
@@ -20591,39 +20592,39 @@
         <v>27</v>
       </c>
       <c r="C26" s="63"/>
-      <c r="D26" s="63">
+      <c r="D26" s="63" t="n">
         <f>Financials!E10</f>
-        <v>8.0343392640650088E-2</v>
-      </c>
-      <c r="E26" s="63">
+        <v>0.08034339264065009</v>
+      </c>
+      <c r="E26" s="63" t="n">
         <f>Financials!F10</f>
-        <v>-4.1096721361196201E-2</v>
-      </c>
-      <c r="F26" s="63">
+        <v>-0.0410967213611962</v>
+      </c>
+      <c r="F26" s="63" t="n">
         <f>Financials!G10</f>
-        <v>5.4213056680161943E-2</v>
-      </c>
-      <c r="G26" s="63">
+        <v>0.05421305668016194</v>
+      </c>
+      <c r="G26" s="63" t="n">
         <f>Financials!H10</f>
         <v>0.1342034203420342</v>
       </c>
-      <c r="H26" s="63">
+      <c r="H26" s="63" t="n">
         <f>Financials!I10</f>
-        <v>0.19882019945506971</v>
-      </c>
-      <c r="I26" s="63">
+        <v>0.1988201994550697</v>
+      </c>
+      <c r="I26" s="63" t="n">
         <f>Financials!J10</f>
         <v>0.20569738961583442</v>
       </c>
-      <c r="J26" s="63">
+      <c r="J26" s="63" t="n">
         <f>Financials!K10</f>
         <v>0.20340037700627733</v>
       </c>
-      <c r="K26" s="63">
+      <c r="K26" s="63" t="n">
         <f>Financials!L10</f>
         <v>0.24100068435860392</v>
       </c>
-      <c r="L26" s="63">
+      <c r="L26" s="63" t="n">
         <f>Financials!M10</f>
         <v>0.19902698463272958</v>
       </c>
@@ -20632,90 +20633,90 @@
       <c r="B28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="24" t="n">
         <f t="shared" ref="C28:L28" si="3">C19/C16</f>
-        <v>0.28083854641678119</v>
-      </c>
-      <c r="D28" s="24">
+        <v>0.2808385464167812</v>
+      </c>
+      <c r="D28" s="24" t="n">
         <f t="shared" si="3"/>
-        <v>0.25421210829983992</v>
-      </c>
-      <c r="E28" s="24">
+        <v>0.2542121082998399</v>
+      </c>
+      <c r="E28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.13029493481513144</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.22532198257893235</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.26394052044609667</v>
       </c>
-      <c r="H28" s="24">
+      <c r="H28" s="24" t="n">
         <f t="shared" si="3"/>
-        <v>0.15015404131931859</v>
-      </c>
-      <c r="I28" s="24">
+        <v>0.1501540413193186</v>
+      </c>
+      <c r="I28" s="24" t="n">
         <f t="shared" si="3"/>
-        <v>0.31181710544090652</v>
-      </c>
-      <c r="J28" s="24">
+        <v>0.3118171054409065</v>
+      </c>
+      <c r="J28" s="24" t="n">
         <f t="shared" si="3"/>
-        <v>0.30962486452470023</v>
-      </c>
-      <c r="K28" s="24">
+        <v>0.3096248645247002</v>
+      </c>
+      <c r="K28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.36451739564989766</v>
       </c>
-      <c r="L28" s="24">
+      <c r="L28" s="24" t="n">
         <f t="shared" si="3"/>
-        <v>0.36686336813436221</v>
+        <v>0.3668633681343622</v>
       </c>
     </row>
     <row r="29" spans="2:12" ht="15" thickBot="1">
       <c r="B29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="24" t="n">
         <f t="shared" ref="C29:L29" si="4">C22/C19</f>
-        <v>1.1240909298815349</v>
-      </c>
-      <c r="D29" s="24">
+        <v>1.124090929881535</v>
+      </c>
+      <c r="D29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.223928603787261</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.9457065529402116</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.2163201713812746</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.2310408411471616</v>
       </c>
-      <c r="H29" s="24">
+      <c r="H29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.9462917144408907</v>
       </c>
-      <c r="I29" s="24">
+      <c r="I29" s="24" t="n">
         <f t="shared" si="4"/>
-        <v>0.97502548419979618</v>
-      </c>
-      <c r="J29" s="24">
+        <v>0.9750254841997962</v>
+      </c>
+      <c r="J29" s="24" t="n">
         <f t="shared" si="4"/>
-        <v>1.0215216458526231</v>
-      </c>
-      <c r="K29" s="24">
+        <v>1.021521645852623</v>
+      </c>
+      <c r="K29" s="24" t="n">
         <f t="shared" si="4"/>
-        <v>0.91589822265019338</v>
-      </c>
-      <c r="L29" s="24">
+        <v>0.9158982226501934</v>
+      </c>
+      <c r="L29" s="24" t="n">
         <f t="shared" si="4"/>
-        <v>0.89566663917072231</v>
+        <v>0.8956666391707223</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="20" thickBot="1">
@@ -20762,87 +20763,87 @@
       <c r="B36" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="21" t="n">
         <f>L16*(C37+1)</f>
         <v>208956.75294209327</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="21" t="n">
         <f>C36*(D37+1)</f>
         <v>232568.86717039102</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="21" t="n">
         <f>D36*(E37+1)</f>
         <v>262291.16902133776</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="21" t="n">
         <f t="shared" ref="F36:L36" si="5">E36*(F37+1)</f>
-        <v>288520.28592347156</v>
-      </c>
-      <c r="G36" s="21">
+        <v>283274.4620740317</v>
+      </c>
+      <c r="G36" s="21" t="n">
         <f t="shared" si="5"/>
-        <v>317372.31451581873</v>
-      </c>
-      <c r="H36" s="21">
+        <v>305936.4185334202</v>
+      </c>
+      <c r="H36" s="21" t="n">
         <f t="shared" si="5"/>
-        <v>349109.5459674006</v>
-      </c>
-      <c r="I36" s="21">
+        <v>330411.33146903646</v>
+      </c>
+      <c r="I36" s="21" t="n">
         <f t="shared" si="5"/>
-        <v>384020.50056414068</v>
-      </c>
-      <c r="J36" s="21">
+        <v>356844.23739573715</v>
+      </c>
+      <c r="J36" s="21" t="n">
         <f t="shared" si="5"/>
-        <v>422422.55062055477</v>
-      </c>
-      <c r="K36" s="21">
+        <v>385391.7757493085</v>
+      </c>
+      <c r="K36" s="21" t="n">
         <f t="shared" si="5"/>
-        <v>464664.80568261031</v>
-      </c>
-      <c r="L36" s="21">
+        <v>416223.1171201193</v>
+      </c>
+      <c r="L36" s="21" t="n">
         <f t="shared" si="5"/>
-        <v>511131.28625087137</v>
+        <v>449520.9657454633</v>
       </c>
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="68">
-        <v>5.3899999707937241E-2</v>
-      </c>
-      <c r="D37" s="68">
+      <c r="C37" s="68" t="n">
+        <v>0.05389999970793724</v>
+      </c>
+      <c r="D37" s="68" t="n">
         <v>0.11300000548362732</v>
       </c>
-      <c r="E37" s="68">
+      <c r="E37" s="68" t="n">
         <v>0.12780000269412994</v>
       </c>
-      <c r="F37" s="27">
+      <c r="F37" s="27" t="n">
         <f>C6</f>
-        <v>0.1</v>
-      </c>
-      <c r="G37" s="27">
+        <v>0.07999999821186066</v>
+      </c>
+      <c r="G37" s="27" t="n">
         <f>C6</f>
-        <v>0.1</v>
-      </c>
-      <c r="H37" s="27">
+        <v>0.07999999821186066</v>
+      </c>
+      <c r="H37" s="27" t="n">
         <f>C6</f>
-        <v>0.1</v>
-      </c>
-      <c r="I37" s="27">
+        <v>0.07999999821186066</v>
+      </c>
+      <c r="I37" s="27" t="n">
         <f>C6</f>
-        <v>0.1</v>
-      </c>
-      <c r="J37" s="27">
+        <v>0.07999999821186066</v>
+      </c>
+      <c r="J37" s="27" t="n">
         <f>C6</f>
-        <v>0.1</v>
-      </c>
-      <c r="K37" s="27">
+        <v>0.07999999821186066</v>
+      </c>
+      <c r="K37" s="27" t="n">
         <f>C6</f>
-        <v>0.1</v>
-      </c>
-      <c r="L37" s="27">
+        <v>0.07999999821186066</v>
+      </c>
+      <c r="L37" s="27" t="n">
         <f>C6</f>
-        <v>0.1</v>
+        <v>0.07999999821186066</v>
       </c>
     </row>
     <row r="38" spans="2:12">
@@ -20862,88 +20863,88 @@
       <c r="B39" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="21" t="n">
         <f>C36*C7</f>
-        <v>55532.030460716473</v>
-      </c>
-      <c r="D39" s="21">
+        <v>55532.03046071647</v>
+      </c>
+      <c r="D39" s="21" t="n">
         <f>D36*C7</f>
-        <v>61807.150207294537</v>
-      </c>
-      <c r="E39" s="21">
+        <v>61807.15020729454</v>
+      </c>
+      <c r="E39" s="21" t="n">
         <f>E36*C7</f>
-        <v>69706.104170303341</v>
-      </c>
-      <c r="F39" s="21">
+        <v>69706.10417030334</v>
+      </c>
+      <c r="F39" s="21" t="n">
         <f>F36*C7</f>
-        <v>76676.714587333525</v>
-      </c>
-      <c r="G39" s="21">
+        <v>75282.59237928342</v>
+      </c>
+      <c r="G39" s="21" t="n">
         <f>G36*C7</f>
-        <v>84344.38604606688</v>
-      </c>
-      <c r="H39" s="21">
+        <v>81305.19963501024</v>
+      </c>
+      <c r="H39" s="21" t="n">
         <f>H36*C7</f>
-        <v>92778.82465067356</v>
-      </c>
-      <c r="I39" s="21">
+        <v>87809.61546042585</v>
+      </c>
+      <c r="I39" s="21" t="n">
         <f>I36*C7</f>
-        <v>102056.70711574092</v>
-      </c>
-      <c r="J39" s="21">
+        <v>94834.38454024399</v>
+      </c>
+      <c r="J39" s="21" t="n">
         <f>J36*C7</f>
-        <v>112262.37782731502</v>
-      </c>
-      <c r="K39" s="21">
+        <v>102421.13513388649</v>
+      </c>
+      <c r="K39" s="21" t="n">
         <f>K36*C7</f>
-        <v>123488.61561004655</v>
-      </c>
-      <c r="L39" s="21">
+        <v>110614.825761454</v>
+      </c>
+      <c r="L39" s="21" t="n">
         <f>L36*C7</f>
-        <v>135837.4771710512</v>
+        <v>119464.01162457545</v>
       </c>
     </row>
     <row r="40" spans="2:12">
       <c r="B40" s="18"/>
-      <c r="C40" s="20">
+      <c r="C40" s="20" t="n">
         <f>(C39-L19)/L19</f>
         <v>-0.23654719045455608</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="20" t="n">
         <f>(D39-C39)/C39</f>
         <v>0.11300000548362978</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="20" t="n">
         <f t="shared" ref="E40:L40" si="6">(E39-D39)/D39</f>
         <v>0.12780000269413105</v>
       </c>
-      <c r="F40" s="20">
+      <c r="F40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>9.9999999999997854E-2</v>
-      </c>
-      <c r="G40" s="20">
+        <v>0.07999999821186128</v>
+      </c>
+      <c r="G40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>0.10000000000000003</v>
-      </c>
-      <c r="H40" s="20">
+        <v>0.0799999982118595</v>
+      </c>
+      <c r="H40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>9.9999999999999895E-2</v>
-      </c>
-      <c r="I40" s="20">
+        <v>0.07999999821185845</v>
+      </c>
+      <c r="I40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>0.10000000000000007</v>
-      </c>
-      <c r="J40" s="20">
+        <v>0.07999999821185956</v>
+      </c>
+      <c r="J40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="K40" s="20">
+        <v>0.07999999821186143</v>
+      </c>
+      <c r="K40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>0.10000000000000017</v>
-      </c>
-      <c r="L40" s="20">
+        <v>0.0799999982118596</v>
+      </c>
+      <c r="L40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>0.1</v>
+        <v>0.07999999821185923</v>
       </c>
     </row>
     <row r="41" spans="2:12">
@@ -20963,180 +20964,177 @@
       <c r="B42" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="21" t="n">
         <f>C39*C8</f>
         <v>69389.99760299467</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D42" s="21" t="n">
         <f>D39*C8</f>
-        <v>77231.067712642049</v>
-      </c>
-      <c r="E42" s="21">
+        <v>77231.06771264205</v>
+      </c>
+      <c r="E42" s="21" t="n">
         <f>E39*C8</f>
-        <v>87101.198374388332</v>
-      </c>
-      <c r="F42" s="21">
+        <v>87101.19837438833</v>
+      </c>
+      <c r="F42" s="21" t="n">
         <f>F39*C8</f>
-        <v>95811.318211826787</v>
-      </c>
-      <c r="G42" s="21">
+        <v>94069.2940885904</v>
+      </c>
+      <c r="G42" s="21" t="n">
         <f>G39*C8</f>
-        <v>105392.45003300946</v>
-      </c>
-      <c r="H42" s="21">
+        <v>101594.83744746848</v>
+      </c>
+      <c r="H42" s="21" t="n">
         <f>H39*C8</f>
-        <v>115931.6950363104</v>
-      </c>
-      <c r="I42" s="21">
+        <v>109722.4242616</v>
+      </c>
+      <c r="I42" s="21" t="n">
         <f>I39*C8</f>
-        <v>127524.86453994145</v>
-      </c>
-      <c r="J42" s="21">
+        <v>118500.21800632897</v>
+      </c>
+      <c r="J42" s="21" t="n">
         <f>J39*C8</f>
-        <v>140277.3509939356</v>
-      </c>
-      <c r="K42" s="21">
+        <v>127980.23523493986</v>
+      </c>
+      <c r="K42" s="21" t="n">
         <f>K39*C8</f>
-        <v>154305.08609332918</v>
-      </c>
-      <c r="L42" s="21">
+        <v>138218.65382488904</v>
+      </c>
+      <c r="L42" s="21" t="n">
         <f>L39*C8</f>
-        <v>169735.59470266211</v>
+        <v>149276.1458837252</v>
       </c>
     </row>
     <row r="43" spans="2:12">
       <c r="B43" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="20" t="n">
         <f>(C42-L22)/L22</f>
-        <v>6.5096894856324278E-2</v>
-      </c>
-      <c r="D43" s="20">
+        <v>0.06509689485632428</v>
+      </c>
+      <c r="D43" s="20" t="n">
         <f>(D42-C42)/C42</f>
         <v>0.11300000548362865</v>
       </c>
-      <c r="E43" s="20">
+      <c r="E43" s="20" t="n">
         <f t="shared" ref="E43:L43" si="7">(E42-D42)/D42</f>
         <v>0.12780000269413125</v>
       </c>
-      <c r="F43" s="20">
+      <c r="F43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>9.9999999999995662E-2</v>
-      </c>
-      <c r="G43" s="20">
+        <v>0.07999999821186153</v>
+      </c>
+      <c r="G43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>9.9999999999999936E-2</v>
-      </c>
-      <c r="H43" s="20">
+        <v>0.07999999821185921</v>
+      </c>
+      <c r="H43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>9.9999999999999922E-2</v>
-      </c>
-      <c r="I43" s="20">
+        <v>0.07999999821185864</v>
+      </c>
+      <c r="I43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>0.10000000000000014</v>
-      </c>
-      <c r="J43" s="20">
+        <v>0.07999999821186024</v>
+      </c>
+      <c r="J43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>0.10000000000000002</v>
-      </c>
-      <c r="K43" s="20">
+        <v>0.0799999982118562</v>
+      </c>
+      <c r="K43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>0.10000000000000017</v>
-      </c>
-      <c r="L43" s="20">
+        <v>0.07999999821186451</v>
+      </c>
+      <c r="L43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>0.10000000000000007</v>
+        <v>0.07999999821185554</v>
       </c>
     </row>
     <row r="45" spans="2:12">
       <c r="B45" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="21">
-        <f>L25*(1+C46)</f>
-        <v>104692.01002915917</v>
-      </c>
-      <c r="D45" s="21">
-        <f>C45*(1+D46)</f>
-        <v>112020.45076240045</v>
-      </c>
-      <c r="E45" s="21">
-        <f t="shared" ref="E45:L45" si="8">D45*(1+E46)</f>
-        <v>119861.88234915234</v>
-      </c>
-      <c r="F45" s="21">
+      <c r="C45" s="60" t="n">
+        <v>106522.0</v>
+      </c>
+      <c r="D45" s="60" t="n">
+        <v>121961.0</v>
+      </c>
+      <c r="E45" s="60" t="n">
+        <v>141032.0</v>
+      </c>
+      <c r="F45" s="21" t="n">
+        <f t="shared" ref="E45:L45" si="8">E45*(1+F46)</f>
+        <v>150904.24004203035</v>
+      </c>
+      <c r="G45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>128252.21414931388</v>
-      </c>
-      <c r="G45" s="21">
+        <v>161467.53688994457</v>
+      </c>
+      <c r="H45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>137229.86917798771</v>
-      </c>
-      <c r="H45" s="21">
+        <v>172770.2645203617</v>
+      </c>
+      <c r="I45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>146835.96006134441</v>
-      </c>
-      <c r="I45" s="21">
+        <v>184864.18308827633</v>
+      </c>
+      <c r="J45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>157114.47730939812</v>
-      </c>
-      <c r="J45" s="21">
+        <v>197804.67595954853</v>
+      </c>
+      <c r="K45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>168112.49076787912</v>
-      </c>
-      <c r="K45" s="21">
+        <v>211651.0033356672</v>
+      </c>
+      <c r="L45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>179880.36517173142</v>
-      </c>
-      <c r="L45" s="21">
-        <f t="shared" si="8"/>
-        <v>192471.99078736012</v>
+        <v>226466.57363223992</v>
       </c>
     </row>
     <row r="46" spans="2:12">
       <c r="B46" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="20" t="n">
         <f>C10</f>
-        <v>7.0000000298023224E-2</v>
-      </c>
-      <c r="D46" s="20">
+        <v>0.07000000029802322</v>
+      </c>
+      <c r="D46" s="20" t="n">
         <f>C10</f>
-        <v>7.0000000298023224E-2</v>
-      </c>
-      <c r="E46" s="20">
+        <v>0.07000000029802322</v>
+      </c>
+      <c r="E46" s="20" t="n">
         <f>C10</f>
-        <v>7.0000000298023224E-2</v>
-      </c>
-      <c r="F46" s="20">
+        <v>0.07000000029802322</v>
+      </c>
+      <c r="F46" s="20" t="n">
         <f>C10</f>
-        <v>7.0000000298023224E-2</v>
-      </c>
-      <c r="G46" s="20">
+        <v>0.07000000029802322</v>
+      </c>
+      <c r="G46" s="20" t="n">
         <f>C10</f>
-        <v>7.0000000298023224E-2</v>
-      </c>
-      <c r="H46" s="20">
+        <v>0.07000000029802322</v>
+      </c>
+      <c r="H46" s="20" t="n">
         <f>C10</f>
-        <v>7.0000000298023224E-2</v>
-      </c>
-      <c r="I46" s="20">
+        <v>0.07000000029802322</v>
+      </c>
+      <c r="I46" s="20" t="n">
         <f>C10</f>
-        <v>7.0000000298023224E-2</v>
-      </c>
-      <c r="J46" s="20">
+        <v>0.07000000029802322</v>
+      </c>
+      <c r="J46" s="20" t="n">
         <f>C10</f>
-        <v>7.0000000298023224E-2</v>
-      </c>
-      <c r="K46" s="20">
+        <v>0.07000000029802322</v>
+      </c>
+      <c r="K46" s="20" t="n">
         <f>C10</f>
-        <v>7.0000000298023224E-2</v>
-      </c>
-      <c r="L46" s="20">
+        <v>0.07000000029802322</v>
+      </c>
+      <c r="L46" s="20" t="n">
         <f>C10</f>
-        <v>7.0000000298023224E-2</v>
+        <v>0.07000000029802322</v>
       </c>
     </row>
     <row r="48" spans="2:12" ht="20" thickBot="1">
@@ -21186,43 +21184,43 @@
       <c r="B51" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="61">
+      <c r="C51" s="61" t="n">
         <f>POWER((1+C4),1)</f>
         <v>1.1049774123316125</v>
       </c>
-      <c r="D51" s="61">
+      <c r="D51" s="61" t="n">
         <f>POWER((1+C4),2)</f>
         <v>1.2209750817630665</v>
       </c>
-      <c r="E51" s="61">
+      <c r="E51" s="61" t="n">
         <f>POWER((1+C4),3)</f>
-        <v>1.3491498863679321</v>
-      </c>
-      <c r="F51" s="61">
+        <v>1.349149886367932</v>
+      </c>
+      <c r="F51" s="61" t="n">
         <f>POWER((1+C4),4)</f>
         <v>1.4907801502863267</v>
       </c>
-      <c r="G51" s="61">
+      <c r="G51" s="61" t="n">
         <f>POWER((1+C4),5)</f>
         <v>1.6472783928187176</v>
       </c>
-      <c r="H51" s="61">
+      <c r="H51" s="61" t="n">
         <f>POWER((1+C4),6)</f>
         <v>1.8202054158866041</v>
       </c>
-      <c r="I51" s="61">
+      <c r="I51" s="61" t="n">
         <f>POWER((1+C4),7)</f>
         <v>2.0112858703583663</v>
       </c>
-      <c r="J51" s="61">
+      <c r="J51" s="61" t="n">
         <f>POWER((1+C4),8)</f>
         <v>2.2224254564877226</v>
       </c>
-      <c r="K51" s="61">
+      <c r="K51" s="61" t="n">
         <f>POWER((1+C4),9)</f>
         <v>2.4557299300097064</v>
       </c>
-      <c r="L51" s="61">
+      <c r="L51" s="61" t="n">
         <f>POWER((1+C4),10)</f>
         <v>2.7135261034474176</v>
       </c>
@@ -21244,45 +21242,45 @@
       <c r="B53" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C53" s="21">
+      <c r="C53" s="21" t="n">
         <f t="shared" ref="C53:L53" si="9">C42/C51</f>
         <v>62797.661588914336</v>
       </c>
-      <c r="D53" s="21">
+      <c r="D53" s="21" t="n">
         <f t="shared" si="9"/>
         <v>63253.59859197247</v>
       </c>
-      <c r="E53" s="21">
+      <c r="E53" s="21" t="n">
         <f t="shared" si="9"/>
         <v>64560.060564415835</v>
       </c>
-      <c r="F53" s="21">
+      <c r="F53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>64269.247342356139</v>
-      </c>
-      <c r="G53" s="21">
+        <v>63100.7154680204</v>
+      </c>
+      <c r="G53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>63979.74409939818</v>
-      </c>
-      <c r="H53" s="21">
+        <v>61674.35807473031</v>
+      </c>
+      <c r="H53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>63691.544934691454</v>
-      </c>
-      <c r="I53" s="21">
+        <v>60280.242715438544</v>
+      </c>
+      <c r="I53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>63404.643973966449</v>
-      </c>
-      <c r="J53" s="21">
+        <v>58917.640576480895</v>
+      </c>
+      <c r="J53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>63119.035369414443</v>
-      </c>
-      <c r="K53" s="21">
+        <v>57585.83931863235</v>
+      </c>
+      <c r="K53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>62834.713299568444</v>
-      </c>
-      <c r="L53" s="21">
+        <v>56284.142704707956</v>
+      </c>
+      <c r="L53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>62551.671969184441</v>
+        <v>55011.87023558608</v>
       </c>
     </row>
     <row r="54" spans="2:12">
@@ -21302,9 +21300,9 @@
       <c r="B55" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="C55" s="74">
+      <c r="C55" s="74" t="n">
         <f>POWER((1+C4),11)</f>
-        <v>2.9983850520816109</v>
+        <v>2.998385052081611</v>
       </c>
       <c r="D55" s="21"/>
       <c r="E55" s="21"/>
@@ -21361,18 +21359,18 @@
       <c r="B59" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C59" s="25">
+      <c r="C59" s="25" t="n">
         <f>L53*(1+C5)/(C4-C5)</f>
-        <v>801669.6452064527</v>
+        <v>705038.6521343814</v>
       </c>
     </row>
     <row r="60" spans="2:12" ht="15" thickBot="1">
       <c r="B60" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="23">
+      <c r="C60" s="23" t="n">
         <f>C59/C55</f>
-        <v>267367.14307253447</v>
+        <v>235139.4633737626</v>
       </c>
     </row>
     <row r="61" spans="2:12" ht="15" thickTop="1"/>
@@ -21380,9 +21378,9 @@
       <c r="B62" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C62" s="71">
+      <c r="C62" s="71" t="n">
         <f>(SUM(C53:L53)+C59)</f>
-        <v>1436131.5669403349</v>
+        <v>1308504.7819732805</v>
       </c>
     </row>
     <row r="63" spans="2:12" ht="15" thickTop="1">
@@ -21392,9 +21390,9 @@
       <c r="B64" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C64" s="70">
+      <c r="C64" s="70" t="n">
         <f>C62/(C11/1000000)</f>
-        <v>188.08835128547631</v>
+        <v>171.37323122481084</v>
       </c>
       <c r="D64" s="29"/>
       <c r="E64" s="30"/>
@@ -21431,18 +21429,18 @@
       <c r="B69" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="25">
+      <c r="C69" s="25" t="n">
         <f>L45*C9</f>
-        <v>3849439.8157472</v>
+        <v>4529331.4726448</v>
       </c>
     </row>
     <row r="70" spans="2:12" ht="15" thickBot="1">
       <c r="B70" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C70" s="23">
+      <c r="C70" s="23" t="n">
         <f>C69/C55</f>
-        <v>1283837.7155978517</v>
+        <v>1510590.332452578</v>
       </c>
     </row>
     <row r="71" spans="2:12" ht="15" thickTop="1">
@@ -21453,9 +21451,9 @@
       <c r="B72" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C72" s="72">
+      <c r="C72" s="72" t="n">
         <f>SUM(C53:L53)+C70</f>
-        <v>1918299.6373317339</v>
+        <v>2114056.4622914772</v>
       </c>
     </row>
     <row r="73" spans="2:12" ht="15" thickTop="1"/>
@@ -21463,9 +21461,9 @@
       <c r="B74" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C74" s="70">
+      <c r="C74" s="70" t="n">
         <f>C72/(C11/1000000)</f>
-        <v>251.23729911873951</v>
+        <v>276.87532512355887</v>
       </c>
     </row>
   </sheetData>
@@ -21480,16 +21478,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B13:E21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="29.90625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="29.90625"/>
   </cols>
   <sheetData>
     <row r="13" spans="2:3" ht="20" thickBot="1">
@@ -21503,15 +21501,15 @@
       <c r="B15" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="78">
-        <v>9.3599996566772461</v>
+      <c r="C15" s="78" t="n">
+        <v>9.359999656677246</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0">
         <v>7</v>
       </c>
     </row>
@@ -21519,15 +21517,15 @@
       <c r="B17" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="C17" s="78">
-        <v>12</v>
+      <c r="C17" s="78" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0">
         <v>4.42</v>
       </c>
       <c r="D18" s="77" t="s">
@@ -21541,15 +21539,15 @@
       <c r="B20" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="79">
+      <c r="C20" s="79" t="n">
         <f>(C15*(C16+C17)*4.4)/C18</f>
-        <v>177.03528762403118</v>
+        <v>158.3999941899224</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="15" thickTop="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E18" r:id="rId1"/>
+    <hyperlink ref="E18" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -21558,27 +21556,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.6328125"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.54296875"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="6.81640625"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="15" thickBot="1">
       <c r="B2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="117">
-        <v>6.9699997901916504</v>
+      <c r="C2" s="117" t="n">
+        <v>6.96999979019165</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="15" thickBot="1"/>
@@ -21654,120 +21652,120 @@
       <c r="O6" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="P6" s="106">
+      <c r="P6" s="106" t="n">
         <f>C2</f>
-        <v>6.9699997901916504</v>
+        <v>6.96999979019165</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="15" thickBot="1">
       <c r="B7" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="90">
+      <c r="C7" s="90" t="n">
         <f>P6*(1+P7)</f>
-        <v>7.5275997609436516</v>
-      </c>
-      <c r="D7" s="90">
+        <v>7.527599760943646</v>
+      </c>
+      <c r="D7" s="90" t="n">
         <f>C7*(1+P7)</f>
-        <v>8.1298077283587471</v>
-      </c>
-      <c r="E7" s="90">
+        <v>8.12980772835874</v>
+      </c>
+      <c r="E7" s="90" t="n">
         <f>D7*(1+P7)</f>
-        <v>8.780192332090218</v>
-      </c>
-      <c r="F7" s="90">
+        <v>8.780192332090206</v>
+      </c>
+      <c r="F7" s="90" t="n">
         <f>E7*(1+P7)</f>
-        <v>9.4826077029572282</v>
-      </c>
-      <c r="G7" s="90">
+        <v>9.482607702957214</v>
+      </c>
+      <c r="G7" s="90" t="n">
         <f>F7*(1+P7)</f>
-        <v>10.241216302237582</v>
-      </c>
-      <c r="H7" s="90">
+        <v>10.241216302237557</v>
+      </c>
+      <c r="H7" s="90" t="n">
         <f>G7*(1+P7)</f>
-        <v>11.060513588103866</v>
-      </c>
-      <c r="I7" s="90">
+        <v>11.060513588103879</v>
+      </c>
+      <c r="I7" s="90" t="n">
         <f>H7*(1+P7)</f>
-        <v>11.945354655374436</v>
-      </c>
-      <c r="J7" s="90">
+        <v>11.945354655374466</v>
+      </c>
+      <c r="J7" s="90" t="n">
         <f>I7*(1+P7)</f>
-        <v>12.900983006444433</v>
-      </c>
-      <c r="K7" s="90">
+        <v>12.900983006444493</v>
+      </c>
+      <c r="K7" s="90" t="n">
         <f>J7*(1+P7)</f>
-        <v>13.933061623891232</v>
-      </c>
-      <c r="L7" s="90">
+        <v>13.933061623891296</v>
+      </c>
+      <c r="L7" s="90" t="n">
         <f>K7*(1+P7)</f>
-        <v>15.047706528888275</v>
-      </c>
-      <c r="M7" s="159">
+        <v>15.04770652888834</v>
+      </c>
+      <c r="M7" s="159" t="n">
         <f>L7*(1+P7)/(P8-P7)</f>
-        <v>650.64873995264088</v>
+        <v>650.6487399526459</v>
       </c>
       <c r="N7" s="160"/>
       <c r="O7" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="P7" s="104">
-        <v>7.9999998211860601E-2</v>
+      <c r="P7" s="104" t="n">
+        <v>0.07999999821186066</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15" thickBot="1">
       <c r="B8" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="90">
+      <c r="C8" s="90" t="n">
         <f>C7/(1+P8)</f>
-        <v>6.8124467314310664</v>
-      </c>
-      <c r="D8" s="90">
+        <v>6.812446731431081</v>
+      </c>
+      <c r="D8" s="90" t="n">
         <f>D7/(1+P8)^2</f>
-        <v>6.6584550739720649</v>
-      </c>
-      <c r="E8" s="90">
+        <v>6.65845507397204</v>
+      </c>
+      <c r="E8" s="90" t="n">
         <f>E7/(1+P8)^3</f>
-        <v>6.5079443142729776</v>
-      </c>
-      <c r="F8" s="90">
+        <v>6.507944314272982</v>
+      </c>
+      <c r="F8" s="90" t="n">
         <f>F7/(1+P8)^4</f>
-        <v>6.3608357685309596</v>
-      </c>
-      <c r="G8" s="90">
+        <v>6.360835768530935</v>
+      </c>
+      <c r="G8" s="90" t="n">
         <f>G7/(1+P8)^5</f>
-        <v>6.2170525315477878</v>
-      </c>
-      <c r="H8" s="90">
+        <v>6.217052531547791</v>
+      </c>
+      <c r="H8" s="90" t="n">
         <f>H7/(1+P8)^6</f>
-        <v>6.0765194365254631</v>
-      </c>
-      <c r="I8" s="90">
+        <v>6.076519436525497</v>
+      </c>
+      <c r="I8" s="90" t="n">
         <f>I7/(1+P8)^7</f>
-        <v>5.939163015770621</v>
-      </c>
-      <c r="J8" s="90">
+        <v>5.939163015770643</v>
+      </c>
+      <c r="J8" s="90" t="n">
         <f>J7/(1+P8)^8</f>
-        <v>5.8049114622871922</v>
-      </c>
-      <c r="K8" s="90">
+        <v>5.804911462287232</v>
+      </c>
+      <c r="K8" s="90" t="n">
         <f>K7/(1+P8)^9</f>
-        <v>5.6736945922372479</v>
-      </c>
-      <c r="L8" s="90">
+        <v>5.673694592237269</v>
+      </c>
+      <c r="L8" s="90" t="n">
         <f>L7/(1+P8)^10</f>
-        <v>5.5454438082503827</v>
-      </c>
-      <c r="M8" s="159">
+        <v>5.545443808250389</v>
+      </c>
+      <c r="M8" s="159" t="n">
         <f>M7/POWER((1+P8),10)</f>
-        <v>239.77979763158334</v>
+        <v>239.7797976315851</v>
       </c>
       <c r="N8" s="160"/>
       <c r="O8" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="P8" s="105">
+      <c r="P8" s="105" t="n">
         <f>WACC!$C$25</f>
         <v>0.1049774123316126</v>
       </c>
@@ -21780,9 +21778,9 @@
       <c r="B10" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="95">
+      <c r="C10" s="95" t="n">
         <f>SUM(C8:N8)*(1-P9)</f>
-        <v>301.37626436640909</v>
+        <v>301.376264366411</v>
       </c>
       <c r="D10" s="96"/>
       <c r="E10" s="96"/>
@@ -21875,56 +21873,56 @@
       <c r="O15" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="P15" s="106">
+      <c r="P15" s="106" t="n">
         <f>C2</f>
-        <v>6.9699997901916504</v>
+        <v>6.96999979019165</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="15" thickBot="1">
       <c r="B16" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="90">
+      <c r="C16" s="90" t="n">
         <f>P15*(1+P16)</f>
-        <v>7.6669997795969511</v>
-      </c>
-      <c r="D16" s="90">
+        <v>7.666999779596951</v>
+      </c>
+      <c r="D16" s="90" t="n">
         <f>C16*(1+P16)</f>
-        <v>8.4336997689813948</v>
-      </c>
-      <c r="E16" s="90">
+        <v>8.433699768981395</v>
+      </c>
+      <c r="E16" s="90" t="n">
         <f>D16*(1+P16)</f>
-        <v>9.2770697584467534</v>
-      </c>
-      <c r="F16" s="90">
+        <v>9.277069758446753</v>
+      </c>
+      <c r="F16" s="90" t="n">
         <f>E16*(1+P16)</f>
         <v>10.204776748115373</v>
       </c>
-      <c r="G16" s="90">
+      <c r="G16" s="90" t="n">
         <f>F16*(1+P16)</f>
         <v>11.225254438133282</v>
       </c>
-      <c r="H16" s="90">
+      <c r="H16" s="90" t="n">
         <f>G16*(1+P16)</f>
         <v>12.347779898673606</v>
       </c>
-      <c r="I16" s="90">
+      <c r="I16" s="90" t="n">
         <f>H16*(1+P16)</f>
         <v>13.582557906940634</v>
       </c>
-      <c r="J16" s="90">
+      <c r="J16" s="90" t="n">
         <f>I16*(1+P16)</f>
-        <v>14.940813717874301</v>
-      </c>
-      <c r="K16" s="90">
+        <v>14.9408137178743</v>
+      </c>
+      <c r="K16" s="90" t="n">
         <f>J16*(1+P16)</f>
         <v>16.434895111925336</v>
       </c>
-      <c r="L16" s="90">
+      <c r="L16" s="90" t="n">
         <f>K16*(1+P16)</f>
         <v>18.078384647607795</v>
       </c>
-      <c r="M16" s="159">
+      <c r="M16" s="159" t="n">
         <f>L16*(1+P16)/(P17-P16)</f>
         <v>3995.2946968967867</v>
       </c>
@@ -21932,7 +21930,7 @@
       <c r="O16" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="P16" s="104">
+      <c r="P16" s="104" t="n">
         <v>0.10000000149011612</v>
       </c>
     </row>
@@ -21940,47 +21938,47 @@
       <c r="B17" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="90">
+      <c r="C17" s="90" t="n">
         <f>C16/(1+P17)</f>
-        <v>6.9386031732710567</v>
-      </c>
-      <c r="D17" s="90">
+        <v>6.938603173271057</v>
+      </c>
+      <c r="D17" s="90" t="n">
         <f>D16/(1+P17)^2</f>
-        <v>6.9073479835503706</v>
-      </c>
-      <c r="E17" s="90">
+        <v>6.907347983550371</v>
+      </c>
+      <c r="E17" s="90" t="n">
         <f>E16/(1+P17)^3</f>
-        <v>6.8762335839657602</v>
-      </c>
-      <c r="F17" s="90">
+        <v>6.87623358396576</v>
+      </c>
+      <c r="F17" s="90" t="n">
         <f>F16/(1+P17)^4</f>
         <v>6.8452593403228486</v>
       </c>
-      <c r="G17" s="90">
+      <c r="G17" s="90" t="n">
         <f>G16/(1+P17)^5</f>
-        <v>6.8144246212841688</v>
-      </c>
-      <c r="H17" s="90">
+        <v>6.814424621284169</v>
+      </c>
+      <c r="H17" s="90" t="n">
         <f>H16/(1+P17)^6</f>
-        <v>6.7837287983560612</v>
-      </c>
-      <c r="I17" s="90">
+        <v>6.783728798356061</v>
+      </c>
+      <c r="I17" s="90" t="n">
         <f>I16/(1+P17)^7</f>
-        <v>6.7531712458758868</v>
-      </c>
-      <c r="J17" s="90">
+        <v>6.753171245875887</v>
+      </c>
+      <c r="J17" s="90" t="n">
         <f>J16/(1+P17)^8</f>
-        <v>6.7227513409995243</v>
-      </c>
-      <c r="K17" s="90">
+        <v>6.722751340999524</v>
+      </c>
+      <c r="K17" s="90" t="n">
         <f>K16/(1+P17)^9</f>
-        <v>6.6924684636882343</v>
-      </c>
-      <c r="L17" s="90">
+        <v>6.692468463688234</v>
+      </c>
+      <c r="L17" s="90" t="n">
         <f>L16/(1+P17)^10</f>
-        <v>6.6623219966964671</v>
-      </c>
-      <c r="M17" s="159">
+        <v>6.662321996696467</v>
+      </c>
+      <c r="M17" s="159" t="n">
         <f>M16/POWER((1+P17),10)</f>
         <v>1472.3627282674515</v>
       </c>
@@ -21988,7 +21986,7 @@
       <c r="O17" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="P17" s="105">
+      <c r="P17" s="105" t="n">
         <f>WACC!$C$25</f>
         <v>0.1049774123316126</v>
       </c>
@@ -22001,9 +21999,9 @@
       <c r="B19" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="95">
+      <c r="C19" s="95" t="n">
         <f>SUM(C17:N17)*(1-P18)</f>
-        <v>1540.3590388154601</v>
+        <v>1540.35903881546</v>
       </c>
       <c r="D19" s="96"/>
       <c r="E19" s="96"/>
@@ -22090,56 +22088,56 @@
       <c r="O24" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="P24" s="106">
+      <c r="P24" s="106" t="n">
         <f>C2</f>
-        <v>6.9699997901916504</v>
+        <v>6.96999979019165</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="15" thickBot="1">
       <c r="B25" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="90">
+      <c r="C25" s="90" t="n">
         <f>P24*(1+P25)</f>
-        <v>7.8063997463196451</v>
-      </c>
-      <c r="D25" s="90">
+        <v>7.806399746319645</v>
+      </c>
+      <c r="D25" s="90" t="n">
         <f>C25*(1+P25)</f>
-        <v>8.7431676949396042</v>
-      </c>
-      <c r="E25" s="90">
+        <v>8.743167694939604</v>
+      </c>
+      <c r="E25" s="90" t="n">
         <f>D25*(1+P25)</f>
-        <v>9.7923477948813407</v>
-      </c>
-      <c r="F25" s="90">
+        <v>9.79234779488134</v>
+      </c>
+      <c r="F25" s="90" t="n">
         <f>E25*(1+P25)</f>
         <v>10.967429504001968</v>
       </c>
-      <c r="G25" s="90">
+      <c r="G25" s="90" t="n">
         <f>F25*(1+P25)</f>
         <v>12.283521015065292</v>
       </c>
-      <c r="H25" s="90">
+      <c r="H25" s="90" t="n">
         <f>G25*(1+P25)</f>
         <v>13.757543503926152</v>
       </c>
-      <c r="I25" s="90">
+      <c r="I25" s="90" t="n">
         <f>H25*(1+P25)</f>
         <v>15.408448687496723</v>
       </c>
-      <c r="J25" s="90">
+      <c r="J25" s="90" t="n">
         <f>I25*(1+P25)</f>
         <v>17.25746248866761</v>
       </c>
-      <c r="K25" s="90">
+      <c r="K25" s="90" t="n">
         <f>J25*(1+P25)</f>
         <v>19.328357941019572</v>
       </c>
-      <c r="L25" s="90">
+      <c r="L25" s="90" t="n">
         <f>K25*(1+P25)</f>
-        <v>21.647760842099238</v>
-      </c>
-      <c r="M25" s="159">
+        <v>21.64776084209924</v>
+      </c>
+      <c r="M25" s="159" t="n">
         <f>L25*(1+P25)/(P26-P25)</f>
         <v>-1613.9360907190394</v>
       </c>
@@ -22147,7 +22145,7 @@
       <c r="O25" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="P25" s="104">
+      <c r="P25" s="104" t="n">
         <v>0.11999999731779099</v>
       </c>
     </row>
@@ -22155,55 +22153,55 @@
       <c r="B26" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="C26" s="90">
+      <c r="C26" s="90" t="n">
         <f>C25/(1+P26)</f>
         <v>7.064759568114054</v>
       </c>
-      <c r="D26" s="90">
+      <c r="D26" s="90" t="n">
         <f>D25/(1+P26)^2</f>
-        <v>7.1608076409836263</v>
-      </c>
-      <c r="E26" s="90">
+        <v>7.160807640983626</v>
+      </c>
+      <c r="E26" s="90" t="n">
         <f>E25/(1+P26)^3</f>
-        <v>7.2581615236565673</v>
-      </c>
-      <c r="F26" s="90">
+        <v>7.258161523656567</v>
+      </c>
+      <c r="F26" s="90" t="n">
         <f>F25/(1+P26)^4</f>
-        <v>7.3568389691099094</v>
-      </c>
-      <c r="G26" s="90">
+        <v>7.356838969109909</v>
+      </c>
+      <c r="G26" s="90" t="n">
         <f>G25/(1+P26)^5</f>
-        <v>7.4568579716792769</v>
-      </c>
-      <c r="H26" s="90">
+        <v>7.456857971679277</v>
+      </c>
+      <c r="H26" s="90" t="n">
         <f>H25/(1+P26)^6</f>
-        <v>7.5582367703400486</v>
-      </c>
-      <c r="I26" s="90">
+        <v>7.558236770340049</v>
+      </c>
+      <c r="I26" s="90" t="n">
         <f>I25/(1+P26)^7</f>
-        <v>7.6609938520331919</v>
-      </c>
-      <c r="J26" s="90">
+        <v>7.660993852033192</v>
+      </c>
+      <c r="J26" s="90" t="n">
         <f>J25/(1+P26)^8</f>
-        <v>7.7651479550369142</v>
-      </c>
-      <c r="K26" s="90">
+        <v>7.765147955036914</v>
+      </c>
+      <c r="K26" s="90" t="n">
         <f>K25/(1+P26)^9</f>
-        <v>7.8707180723831369</v>
-      </c>
-      <c r="L26" s="90">
+        <v>7.870718072383137</v>
+      </c>
+      <c r="L26" s="90" t="n">
         <f>L25/(1+P26)^10</f>
         <v>7.977723455321339</v>
       </c>
-      <c r="M26" s="159">
+      <c r="M26" s="159" t="n">
         <f>M25/POWER((1+P26),10)</f>
-        <v>-594.77448500259595</v>
+        <v>-594.774485002596</v>
       </c>
       <c r="N26" s="160"/>
       <c r="O26" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="P26" s="105">
+      <c r="P26" s="105" t="n">
         <f>WACC!$C$25</f>
         <v>0.1049774123316126</v>
       </c>
@@ -22216,9 +22214,9 @@
       <c r="B28" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="95">
+      <c r="C28" s="95" t="n">
         <f>SUM(C26:N26)*(1-P27)</f>
-        <v>-519.64423922393803</v>
+        <v>-519.644239223938</v>
       </c>
       <c r="D28" s="96"/>
       <c r="E28" s="96"/>
@@ -22252,7 +22250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:AJ83"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -22261,12 +22259,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="62.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="110" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" style="110" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="11.26953125" style="110" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.6328125" style="110" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7265625" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="62.26953125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="110" width="10.0"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="110" width="13.26953125"/>
+    <col min="5" max="11" bestFit="true" customWidth="true" style="110" width="11.26953125"/>
+    <col min="12" max="13" bestFit="true" customWidth="true" style="110" width="11.6328125"/>
+    <col min="19" max="19" customWidth="true" width="11.7265625"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="17.5" thickBot="1">
@@ -22309,38 +22307,38 @@
       <c r="B3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="120">
-        <v>73723</v>
-      </c>
-      <c r="D3" s="110">
-        <v>77849</v>
-      </c>
-      <c r="E3" s="110">
-        <v>86833</v>
-      </c>
-      <c r="F3" s="110">
-        <v>93580</v>
-      </c>
-      <c r="G3" s="110">
-        <v>91154</v>
-      </c>
-      <c r="H3" s="110">
-        <v>96571</v>
-      </c>
-      <c r="I3" s="110">
-        <v>110360</v>
-      </c>
-      <c r="J3" s="110">
-        <v>125843</v>
-      </c>
-      <c r="K3" s="110">
-        <v>143015</v>
-      </c>
-      <c r="L3" s="110">
-        <v>168088</v>
-      </c>
-      <c r="M3" s="110">
-        <v>198270</v>
+      <c r="C3" s="120" t="n">
+        <v>73723.0</v>
+      </c>
+      <c r="D3" s="110" t="n">
+        <v>77849.0</v>
+      </c>
+      <c r="E3" s="110" t="n">
+        <v>86833.0</v>
+      </c>
+      <c r="F3" s="110" t="n">
+        <v>93580.0</v>
+      </c>
+      <c r="G3" s="110" t="n">
+        <v>91154.0</v>
+      </c>
+      <c r="H3" s="110" t="n">
+        <v>96571.0</v>
+      </c>
+      <c r="I3" s="110" t="n">
+        <v>110360.0</v>
+      </c>
+      <c r="J3" s="110" t="n">
+        <v>125843.0</v>
+      </c>
+      <c r="K3" s="110" t="n">
+        <v>143015.0</v>
+      </c>
+      <c r="L3" s="110" t="n">
+        <v>168088.0</v>
+      </c>
+      <c r="M3" s="110" t="n">
+        <v>198270.0</v>
       </c>
       <c r="Q3" s="107"/>
     </row>
@@ -22349,43 +22347,43 @@
         <v>27</v>
       </c>
       <c r="C4" s="113"/>
-      <c r="D4" s="121">
+      <c r="D4" s="121" t="n">
         <f t="shared" ref="D4:M4" si="0">(D3-C3)/C3</f>
-        <v>5.5966252051598553E-2</v>
-      </c>
-      <c r="E4" s="121">
+        <v>0.05596625205159855</v>
+      </c>
+      <c r="E4" s="121" t="n">
         <f t="shared" si="0"/>
         <v>0.11540289534868785</v>
       </c>
-      <c r="F4" s="121">
+      <c r="F4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>7.7700874091647179E-2</v>
-      </c>
-      <c r="G4" s="121">
+        <v>0.07770087409164718</v>
+      </c>
+      <c r="G4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>-2.592434280829237E-2</v>
-      </c>
-      <c r="H4" s="121">
+        <v>-0.02592434280829237</v>
+      </c>
+      <c r="H4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>5.9426903920837264E-2</v>
-      </c>
-      <c r="I4" s="121">
+        <v>0.059426903920837264</v>
+      </c>
+      <c r="I4" s="121" t="n">
         <f t="shared" si="0"/>
         <v>0.14278613662486667</v>
       </c>
-      <c r="J4" s="121">
+      <c r="J4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>0.14029539688292861</v>
-      </c>
-      <c r="K4" s="121">
+        <v>0.1402953968829286</v>
+      </c>
+      <c r="K4" s="121" t="n">
         <f t="shared" si="0"/>
         <v>0.13645574247276368</v>
       </c>
-      <c r="L4" s="121">
+      <c r="L4" s="121" t="n">
         <f t="shared" si="0"/>
         <v>0.175317274411775</v>
       </c>
-      <c r="M4" s="121">
+      <c r="M4" s="121" t="n">
         <f t="shared" si="0"/>
         <v>0.17956070629670173</v>
       </c>
@@ -22410,38 +22408,38 @@
       <c r="B6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="110">
-        <v>16978</v>
-      </c>
-      <c r="D6" s="110">
-        <v>21863</v>
-      </c>
-      <c r="E6" s="110">
-        <v>22074</v>
-      </c>
-      <c r="F6" s="110">
-        <v>12193</v>
-      </c>
-      <c r="G6" s="110">
-        <v>20539</v>
-      </c>
-      <c r="H6" s="110">
-        <v>25489</v>
-      </c>
-      <c r="I6" s="110">
-        <v>16571</v>
-      </c>
-      <c r="J6" s="110">
-        <v>39240</v>
-      </c>
-      <c r="K6" s="110">
-        <v>44281</v>
-      </c>
-      <c r="L6" s="110">
-        <v>61271</v>
-      </c>
-      <c r="M6" s="110">
-        <v>72738</v>
+      <c r="C6" s="110" t="n">
+        <v>16978.0</v>
+      </c>
+      <c r="D6" s="110" t="n">
+        <v>21863.0</v>
+      </c>
+      <c r="E6" s="110" t="n">
+        <v>22074.0</v>
+      </c>
+      <c r="F6" s="110" t="n">
+        <v>12193.0</v>
+      </c>
+      <c r="G6" s="110" t="n">
+        <v>20539.0</v>
+      </c>
+      <c r="H6" s="110" t="n">
+        <v>25489.0</v>
+      </c>
+      <c r="I6" s="110" t="n">
+        <v>16571.0</v>
+      </c>
+      <c r="J6" s="110" t="n">
+        <v>39240.0</v>
+      </c>
+      <c r="K6" s="110" t="n">
+        <v>44281.0</v>
+      </c>
+      <c r="L6" s="110" t="n">
+        <v>61271.0</v>
+      </c>
+      <c r="M6" s="110" t="n">
+        <v>72738.0</v>
       </c>
       <c r="Q6" s="107"/>
     </row>
@@ -22450,43 +22448,43 @@
         <v>27</v>
       </c>
       <c r="C7" s="113"/>
-      <c r="D7" s="121">
+      <c r="D7" s="121" t="n">
         <f t="shared" ref="D7" si="1">(D6-C6)/C6</f>
         <v>0.28772529155377546</v>
       </c>
-      <c r="E7" s="121">
+      <c r="E7" s="121" t="n">
         <f t="shared" ref="E7" si="2">(E6-D6)/D6</f>
-        <v>9.6510085532635053E-3</v>
-      </c>
-      <c r="F7" s="121">
+        <v>0.009651008553263505</v>
+      </c>
+      <c r="F7" s="121" t="n">
         <f t="shared" ref="F7" si="3">(F6-E6)/E6</f>
         <v>-0.44763069674730455</v>
       </c>
-      <c r="G7" s="121">
+      <c r="G7" s="121" t="n">
         <f t="shared" ref="G7" si="4">(G6-F6)/F6</f>
-        <v>0.68449110145165259</v>
-      </c>
-      <c r="H7" s="121">
+        <v>0.6844911014516526</v>
+      </c>
+      <c r="H7" s="121" t="n">
         <f t="shared" ref="H7" si="5">(H6-G6)/G6</f>
-        <v>0.24100491747407371</v>
-      </c>
-      <c r="I7" s="121">
+        <v>0.2410049174740737</v>
+      </c>
+      <c r="I7" s="121" t="n">
         <f t="shared" ref="I7" si="6">(I6-H6)/H6</f>
         <v>-0.34987641727804153</v>
       </c>
-      <c r="J7" s="121">
+      <c r="J7" s="121" t="n">
         <f t="shared" ref="J7" si="7">(J6-I6)/I6</f>
         <v>1.3679922756623015</v>
       </c>
-      <c r="K7" s="121">
+      <c r="K7" s="121" t="n">
         <f t="shared" ref="K7" si="8">(K6-J6)/J6</f>
-        <v>0.12846585117227319</v>
-      </c>
-      <c r="L7" s="121">
+        <v>0.1284658511722732</v>
+      </c>
+      <c r="L7" s="121" t="n">
         <f t="shared" ref="L7" si="9">(L6-K6)/K6</f>
         <v>0.38368600528443353</v>
       </c>
-      <c r="M7" s="121">
+      <c r="M7" s="121" t="n">
         <f t="shared" ref="M7" si="10">(M6-L6)/L6</f>
         <v>0.18715216007572913</v>
       </c>
@@ -22509,38 +22507,38 @@
       <c r="B9" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="110">
-        <v>30923</v>
-      </c>
-      <c r="D9" s="110">
-        <v>30519</v>
-      </c>
-      <c r="E9" s="110">
-        <v>32971</v>
-      </c>
-      <c r="F9" s="110">
-        <v>31616</v>
-      </c>
-      <c r="G9" s="110">
-        <v>33330</v>
-      </c>
-      <c r="H9" s="110">
-        <v>37803</v>
-      </c>
-      <c r="I9" s="110">
-        <v>45319</v>
-      </c>
-      <c r="J9" s="110">
-        <v>54641</v>
-      </c>
-      <c r="K9" s="110">
-        <v>65755</v>
-      </c>
-      <c r="L9" s="110">
-        <v>81602</v>
-      </c>
-      <c r="M9" s="110">
-        <v>97843</v>
+      <c r="C9" s="110" t="n">
+        <v>30923.0</v>
+      </c>
+      <c r="D9" s="110" t="n">
+        <v>30519.0</v>
+      </c>
+      <c r="E9" s="110" t="n">
+        <v>32971.0</v>
+      </c>
+      <c r="F9" s="110" t="n">
+        <v>31616.0</v>
+      </c>
+      <c r="G9" s="110" t="n">
+        <v>33330.0</v>
+      </c>
+      <c r="H9" s="110" t="n">
+        <v>37803.0</v>
+      </c>
+      <c r="I9" s="110" t="n">
+        <v>45319.0</v>
+      </c>
+      <c r="J9" s="110" t="n">
+        <v>54641.0</v>
+      </c>
+      <c r="K9" s="110" t="n">
+        <v>65755.0</v>
+      </c>
+      <c r="L9" s="110" t="n">
+        <v>81602.0</v>
+      </c>
+      <c r="M9" s="110" t="n">
+        <v>97843.0</v>
       </c>
       <c r="Q9" s="107"/>
     </row>
@@ -22549,43 +22547,43 @@
         <v>27</v>
       </c>
       <c r="C10" s="113"/>
-      <c r="D10" s="121">
+      <c r="D10" s="121" t="n">
         <f t="shared" ref="D10" si="11">(D9-C9)/C9</f>
-        <v>-1.3064709116191831E-2</v>
-      </c>
-      <c r="E10" s="121">
+        <v>-0.013064709116191831</v>
+      </c>
+      <c r="E10" s="121" t="n">
         <f t="shared" ref="E10" si="12">(E9-D9)/D9</f>
-        <v>8.0343392640650088E-2</v>
-      </c>
-      <c r="F10" s="121">
+        <v>0.08034339264065009</v>
+      </c>
+      <c r="F10" s="121" t="n">
         <f t="shared" ref="F10" si="13">(F9-E9)/E9</f>
-        <v>-4.1096721361196201E-2</v>
-      </c>
-      <c r="G10" s="121">
+        <v>-0.0410967213611962</v>
+      </c>
+      <c r="G10" s="121" t="n">
         <f t="shared" ref="G10" si="14">(G9-F9)/F9</f>
-        <v>5.4213056680161943E-2</v>
-      </c>
-      <c r="H10" s="121">
+        <v>0.05421305668016194</v>
+      </c>
+      <c r="H10" s="121" t="n">
         <f t="shared" ref="H10" si="15">(H9-G9)/G9</f>
         <v>0.1342034203420342</v>
       </c>
-      <c r="I10" s="121">
+      <c r="I10" s="121" t="n">
         <f t="shared" ref="I10" si="16">(I9-H9)/H9</f>
-        <v>0.19882019945506971</v>
-      </c>
-      <c r="J10" s="121">
+        <v>0.1988201994550697</v>
+      </c>
+      <c r="J10" s="121" t="n">
         <f t="shared" ref="J10" si="17">(J9-I9)/I9</f>
         <v>0.20569738961583442</v>
       </c>
-      <c r="K10" s="121">
+      <c r="K10" s="121" t="n">
         <f t="shared" ref="K10" si="18">(K9-J9)/J9</f>
         <v>0.20340037700627733</v>
       </c>
-      <c r="L10" s="121">
+      <c r="L10" s="121" t="n">
         <f t="shared" ref="L10" si="19">(L9-K9)/K9</f>
         <v>0.24100068435860392</v>
       </c>
-      <c r="M10" s="121">
+      <c r="M10" s="121" t="n">
         <f t="shared" ref="M10" si="20">(M9-L9)/L9</f>
         <v>0.19902698463272958</v>
       </c>
@@ -22600,38 +22598,38 @@
       <c r="B12" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="110">
-        <v>8506</v>
-      </c>
-      <c r="D12" s="110">
-        <v>8470</v>
-      </c>
-      <c r="E12" s="110">
-        <v>8399</v>
-      </c>
-      <c r="F12" s="110">
-        <v>8254</v>
-      </c>
-      <c r="G12" s="110">
-        <v>8013</v>
-      </c>
-      <c r="H12" s="110">
-        <v>7832</v>
-      </c>
-      <c r="I12" s="110">
-        <v>7794</v>
-      </c>
-      <c r="J12" s="110">
-        <v>7753</v>
-      </c>
-      <c r="K12" s="110">
-        <v>7683</v>
-      </c>
-      <c r="L12" s="110">
-        <v>7608</v>
-      </c>
-      <c r="M12" s="110">
-        <v>7540</v>
+      <c r="C12" s="110" t="n">
+        <v>8506.0</v>
+      </c>
+      <c r="D12" s="110" t="n">
+        <v>8470.0</v>
+      </c>
+      <c r="E12" s="110" t="n">
+        <v>8399.0</v>
+      </c>
+      <c r="F12" s="110" t="n">
+        <v>8254.0</v>
+      </c>
+      <c r="G12" s="110" t="n">
+        <v>8013.0</v>
+      </c>
+      <c r="H12" s="110" t="n">
+        <v>7832.0</v>
+      </c>
+      <c r="I12" s="110" t="n">
+        <v>7794.0</v>
+      </c>
+      <c r="J12" s="110" t="n">
+        <v>7753.0</v>
+      </c>
+      <c r="K12" s="110" t="n">
+        <v>7683.0</v>
+      </c>
+      <c r="L12" s="110" t="n">
+        <v>7608.0</v>
+      </c>
+      <c r="M12" s="110" t="n">
+        <v>7540.0</v>
       </c>
       <c r="Q12" s="107"/>
     </row>
@@ -22640,45 +22638,45 @@
         <v>27</v>
       </c>
       <c r="C13" s="113"/>
-      <c r="D13" s="121">
+      <c r="D13" s="121" t="n">
         <f t="shared" ref="D13" si="21">(D12-C12)/C12</f>
-        <v>-4.2323066071008704E-3</v>
-      </c>
-      <c r="E13" s="121">
+        <v>-0.00423230660710087</v>
+      </c>
+      <c r="E13" s="121" t="n">
         <f t="shared" ref="E13" si="22">(E12-D12)/D12</f>
-        <v>-8.3825265643447458E-3</v>
-      </c>
-      <c r="F13" s="121">
+        <v>-0.008382526564344746</v>
+      </c>
+      <c r="F13" s="121" t="n">
         <f t="shared" ref="F13" si="23">(F12-E12)/E12</f>
-        <v>-1.7263959995237527E-2</v>
-      </c>
-      <c r="G13" s="121">
+        <v>-0.017263959995237527</v>
+      </c>
+      <c r="G13" s="121" t="n">
         <f t="shared" ref="G13" si="24">(G12-F12)/F12</f>
-        <v>-2.9197964623212988E-2</v>
-      </c>
-      <c r="H13" s="121">
+        <v>-0.029197964623212988</v>
+      </c>
+      <c r="H13" s="121" t="n">
         <f t="shared" ref="H13" si="25">(H12-G12)/G12</f>
-        <v>-2.2588294022213903E-2</v>
-      </c>
-      <c r="I13" s="121">
+        <v>-0.022588294022213903</v>
+      </c>
+      <c r="I13" s="121" t="n">
         <f t="shared" ref="I13" si="26">(I12-H12)/H12</f>
-        <v>-4.8518896833503579E-3</v>
-      </c>
-      <c r="J13" s="121">
+        <v>-0.004851889683350358</v>
+      </c>
+      <c r="J13" s="121" t="n">
         <f t="shared" ref="J13" si="27">(J12-I12)/I12</f>
-        <v>-5.2604567616114963E-3</v>
-      </c>
-      <c r="K13" s="121">
+        <v>-0.005260456761611496</v>
+      </c>
+      <c r="K13" s="121" t="n">
         <f t="shared" ref="K13" si="28">(K12-J12)/J12</f>
-        <v>-9.0287630594608533E-3</v>
-      </c>
-      <c r="L13" s="121">
+        <v>-0.009028763059460853</v>
+      </c>
+      <c r="L13" s="121" t="n">
         <f t="shared" ref="L13" si="29">(L12-K12)/K12</f>
-        <v>-9.7618117922686452E-3</v>
-      </c>
-      <c r="M13" s="121">
+        <v>-0.009761811792268645</v>
+      </c>
+      <c r="M13" s="121" t="n">
         <f t="shared" ref="M13" si="30">(M12-L12)/L12</f>
-        <v>-8.9379600420609884E-3</v>
+        <v>-0.008937960042060988</v>
       </c>
       <c r="Q13" s="107"/>
     </row>
@@ -22691,38 +22689,38 @@
       <c r="B15" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="110">
-        <v>2</v>
-      </c>
-      <c r="D15" s="110">
+      <c r="C15" s="110" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D15" s="110" t="n">
         <v>2.5799999237060547</v>
       </c>
-      <c r="E15" s="110">
+      <c r="E15" s="110" t="n">
         <v>2.630000114440918</v>
       </c>
-      <c r="F15" s="110">
+      <c r="F15" s="110" t="n">
         <v>1.4800000190734863</v>
       </c>
-      <c r="G15" s="110">
+      <c r="G15" s="110" t="n">
         <v>2.559999942779541</v>
       </c>
-      <c r="H15" s="110">
+      <c r="H15" s="110" t="n">
         <v>3.25</v>
       </c>
-      <c r="I15" s="110">
+      <c r="I15" s="110" t="n">
         <v>2.130000114440918</v>
       </c>
-      <c r="J15" s="110">
+      <c r="J15" s="110" t="n">
         <v>5.059999942779541</v>
       </c>
-      <c r="K15" s="110">
-        <v>5.7600002288818359</v>
-      </c>
-      <c r="L15" s="110">
-        <v>8.0500001907348633</v>
-      </c>
-      <c r="M15" s="110">
-        <v>9.6499996185302734</v>
+      <c r="K15" s="110" t="n">
+        <v>5.760000228881836</v>
+      </c>
+      <c r="L15" s="110" t="n">
+        <v>8.050000190734863</v>
+      </c>
+      <c r="M15" s="110" t="n">
+        <v>9.649999618530273</v>
       </c>
       <c r="Q15" s="107"/>
     </row>
@@ -22730,43 +22728,43 @@
       <c r="B16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="121">
+      <c r="D16" s="121" t="n">
         <f t="shared" ref="D16" si="31">(D15-C15)/C15</f>
-        <v>0.28999996185302751</v>
-      </c>
-      <c r="E16" s="121">
+        <v>0.2899999618530275</v>
+      </c>
+      <c r="E16" s="121" t="n">
         <f t="shared" ref="E16" si="32">(E15-D15)/D15</f>
-        <v>1.9379919462571282E-2</v>
-      </c>
-      <c r="F16" s="121">
+        <v>0.019379919462571282</v>
+      </c>
+      <c r="F16" s="121" t="n">
         <f t="shared" ref="F16" si="33">(F15-E15)/E15</f>
-        <v>-0.43726237464894357</v>
-      </c>
-      <c r="G16" s="121">
+        <v>-0.4372623746489436</v>
+      </c>
+      <c r="G16" s="121" t="n">
         <f t="shared" ref="G16" si="34">(G15-F15)/F15</f>
-        <v>0.72972966877537737</v>
-      </c>
-      <c r="H16" s="121">
+        <v>0.7297296687753774</v>
+      </c>
+      <c r="H16" s="121" t="n">
         <f t="shared" ref="H16" si="35">(H15-G15)/G15</f>
-        <v>0.26953127837623542</v>
-      </c>
-      <c r="I16" s="121">
+        <v>0.2695312783762354</v>
+      </c>
+      <c r="I16" s="121" t="n">
         <f t="shared" ref="I16" si="36">(I15-H15)/H15</f>
         <v>-0.34461534940279387</v>
       </c>
-      <c r="J16" s="121">
+      <c r="J16" s="121" t="n">
         <f t="shared" ref="J16" si="37">(J15-I15)/I15</f>
         <v>1.3755866999601936</v>
       </c>
-      <c r="K16" s="121">
+      <c r="K16" s="121" t="n">
         <f t="shared" ref="K16" si="38">(K15-J15)/J15</f>
         <v>0.13833997905497475</v>
       </c>
-      <c r="L16" s="121">
+      <c r="L16" s="121" t="n">
         <f t="shared" ref="L16" si="39">(L15-K15)/K15</f>
         <v>0.39756942202371687</v>
       </c>
-      <c r="M16" s="121">
+      <c r="M16" s="121" t="n">
         <f t="shared" ref="M16" si="40">(M15-L15)/L15</f>
         <v>0.19875768818452053</v>
       </c>
@@ -22816,38 +22814,38 @@
       <c r="B20" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="110">
-        <v>29321</v>
-      </c>
-      <c r="D20" s="128">
-        <v>24576</v>
-      </c>
-      <c r="E20" s="128">
-        <v>27017</v>
-      </c>
-      <c r="F20" s="128">
-        <v>23724</v>
-      </c>
-      <c r="G20" s="128">
-        <v>24982</v>
-      </c>
-      <c r="H20" s="128">
-        <v>31378</v>
-      </c>
-      <c r="I20" s="128">
-        <v>32252</v>
-      </c>
-      <c r="J20" s="128">
-        <v>38260</v>
-      </c>
-      <c r="K20" s="128">
-        <v>45234</v>
-      </c>
-      <c r="L20" s="128">
-        <v>56118</v>
-      </c>
-      <c r="M20" s="128">
-        <v>65149</v>
+      <c r="C20" s="110" t="n">
+        <v>29321.0</v>
+      </c>
+      <c r="D20" s="128" t="n">
+        <v>24576.0</v>
+      </c>
+      <c r="E20" s="128" t="n">
+        <v>27017.0</v>
+      </c>
+      <c r="F20" s="128" t="n">
+        <v>23724.0</v>
+      </c>
+      <c r="G20" s="128" t="n">
+        <v>24982.0</v>
+      </c>
+      <c r="H20" s="128" t="n">
+        <v>31378.0</v>
+      </c>
+      <c r="I20" s="128" t="n">
+        <v>32252.0</v>
+      </c>
+      <c r="J20" s="128" t="n">
+        <v>38260.0</v>
+      </c>
+      <c r="K20" s="128" t="n">
+        <v>45234.0</v>
+      </c>
+      <c r="L20" s="128" t="n">
+        <v>56118.0</v>
+      </c>
+      <c r="M20" s="128" t="n">
+        <v>65149.0</v>
       </c>
       <c r="O20" s="107"/>
       <c r="P20" s="107"/>
@@ -22876,40 +22874,41 @@
       <c r="B21" s="31" t="s">
         <v>27</v>
       </c>
+      <c r="C21" s="110"/>
       <c r="D21" s="129"/>
-      <c r="E21" s="131">
+      <c r="E21" s="131" t="n">
         <f t="shared" ref="E21" si="41">(E20-D20)/D20</f>
-        <v>9.9324544270833329E-2</v>
-      </c>
-      <c r="F21" s="131">
+        <v>0.09932454427083333</v>
+      </c>
+      <c r="F21" s="131" t="n">
         <f t="shared" ref="F21" si="42">(F20-E20)/E20</f>
         <v>-0.12188621978754118</v>
       </c>
-      <c r="G21" s="131">
+      <c r="G21" s="131" t="n">
         <f t="shared" ref="G21" si="43">(G20-F20)/F20</f>
-        <v>5.3026471084134212E-2</v>
-      </c>
-      <c r="H21" s="131">
+        <v>0.05302647108413421</v>
+      </c>
+      <c r="H21" s="131" t="n">
         <f t="shared" ref="H21" si="44">(H20-G20)/G20</f>
         <v>0.25602433752301657</v>
       </c>
-      <c r="I21" s="131">
+      <c r="I21" s="131" t="n">
         <f t="shared" ref="I21" si="45">(I20-H20)/H20</f>
-        <v>2.7853910383070942E-2</v>
-      </c>
-      <c r="J21" s="131">
+        <v>0.027853910383070942</v>
+      </c>
+      <c r="J21" s="131" t="n">
         <f t="shared" ref="J21" si="46">(J20-I20)/I20</f>
-        <v>0.18628302120798709</v>
-      </c>
-      <c r="K21" s="131">
+        <v>0.1862830212079871</v>
+      </c>
+      <c r="K21" s="131" t="n">
         <f t="shared" ref="K21" si="47">(K20-J20)/J20</f>
         <v>0.1822791427077888</v>
       </c>
-      <c r="L21" s="131">
+      <c r="L21" s="131" t="n">
         <f t="shared" ref="L21" si="48">(L20-K20)/K20</f>
         <v>0.2406154662422072</v>
       </c>
-      <c r="M21" s="131">
+      <c r="M21" s="131" t="n">
         <f t="shared" ref="M21" si="49">(M20-L20)/L20</f>
         <v>0.16092875726148473</v>
       </c>
@@ -22974,38 +22973,38 @@
       <c r="B23" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="113">
-        <v>6385</v>
-      </c>
-      <c r="D23" s="130">
-        <v>7455</v>
-      </c>
-      <c r="E23" s="130">
-        <v>8879</v>
-      </c>
-      <c r="F23" s="130">
-        <v>9882</v>
-      </c>
-      <c r="G23" s="130">
-        <v>11006</v>
-      </c>
-      <c r="H23" s="130">
-        <v>11845</v>
-      </c>
-      <c r="I23" s="130">
-        <v>12699</v>
-      </c>
-      <c r="J23" s="130">
-        <v>13811</v>
-      </c>
-      <c r="K23" s="130">
-        <v>15137</v>
-      </c>
-      <c r="L23" s="130">
-        <v>16521</v>
-      </c>
-      <c r="M23" s="130">
-        <v>18135</v>
+      <c r="C23" s="113" t="n">
+        <v>6385.0</v>
+      </c>
+      <c r="D23" s="130" t="n">
+        <v>7455.0</v>
+      </c>
+      <c r="E23" s="130" t="n">
+        <v>8879.0</v>
+      </c>
+      <c r="F23" s="130" t="n">
+        <v>9882.0</v>
+      </c>
+      <c r="G23" s="130" t="n">
+        <v>11006.0</v>
+      </c>
+      <c r="H23" s="130" t="n">
+        <v>11845.0</v>
+      </c>
+      <c r="I23" s="130" t="n">
+        <v>12699.0</v>
+      </c>
+      <c r="J23" s="130" t="n">
+        <v>13811.0</v>
+      </c>
+      <c r="K23" s="130" t="n">
+        <v>15137.0</v>
+      </c>
+      <c r="L23" s="130" t="n">
+        <v>16521.0</v>
+      </c>
+      <c r="M23" s="130" t="n">
+        <v>18135.0</v>
       </c>
       <c r="O23" s="107"/>
       <c r="P23" s="107"/>
@@ -23031,45 +23030,45 @@
       <c r="AJ23" s="107"/>
     </row>
     <row r="24" spans="2:36">
-      <c r="D24" s="121">
+      <c r="D24" s="121" t="n">
         <f t="shared" ref="D24" si="50">(D23-C23)/C23</f>
         <v>0.16758026624902114</v>
       </c>
-      <c r="E24" s="121">
+      <c r="E24" s="121" t="n">
         <f t="shared" ref="E24" si="51">(E23-D23)/D23</f>
-        <v>0.19101274312541919</v>
-      </c>
-      <c r="F24" s="121">
+        <v>0.1910127431254192</v>
+      </c>
+      <c r="F24" s="121" t="n">
         <f t="shared" ref="F24" si="52">(F23-E23)/E23</f>
         <v>0.11296317152832526</v>
       </c>
-      <c r="G24" s="121">
+      <c r="G24" s="121" t="n">
         <f t="shared" ref="G24" si="53">(G23-F23)/F23</f>
         <v>0.11374215745800445</v>
       </c>
-      <c r="H24" s="121">
+      <c r="H24" s="121" t="n">
         <f t="shared" ref="H24" si="54">(H23-G23)/G23</f>
-        <v>7.6231146647283296E-2</v>
-      </c>
-      <c r="I24" s="121">
+        <v>0.0762311466472833</v>
+      </c>
+      <c r="I24" s="121" t="n">
         <f t="shared" ref="I24" si="55">(I23-H23)/H23</f>
-        <v>7.2097931616715918E-2</v>
-      </c>
-      <c r="J24" s="121">
+        <v>0.07209793161671592</v>
+      </c>
+      <c r="J24" s="121" t="n">
         <f t="shared" ref="J24" si="56">(J23-I23)/I23</f>
-        <v>8.7565950074809037E-2</v>
-      </c>
-      <c r="K24" s="121">
+        <v>0.08756595007480904</v>
+      </c>
+      <c r="K24" s="121" t="n">
         <f t="shared" ref="K24" si="57">(K23-J23)/J23</f>
-        <v>9.6010426471653032E-2</v>
-      </c>
-      <c r="L24" s="121">
+        <v>0.09601042647165303</v>
+      </c>
+      <c r="L24" s="121" t="n">
         <f t="shared" ref="L24" si="58">(L23-K23)/K23</f>
-        <v>9.143159146462311E-2</v>
-      </c>
-      <c r="M24" s="121">
+        <v>0.09143159146462311</v>
+      </c>
+      <c r="M24" s="121" t="n">
         <f t="shared" ref="M24" si="59">(M23-L23)/L23</f>
-        <v>9.7693844198293078E-2</v>
+        <v>0.09769384419829308</v>
       </c>
       <c r="O24" s="107"/>
       <c r="P24" s="107"/>
@@ -23206,38 +23205,38 @@
       <c r="B28" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="110">
-        <v>85084</v>
-      </c>
-      <c r="D28" s="110">
-        <v>101466</v>
-      </c>
-      <c r="E28" s="110">
-        <v>114246</v>
-      </c>
-      <c r="F28" s="110">
-        <v>122797</v>
-      </c>
-      <c r="G28" s="110">
-        <v>139660</v>
-      </c>
-      <c r="H28" s="110">
-        <v>162696</v>
-      </c>
-      <c r="I28" s="110">
-        <v>169662</v>
-      </c>
-      <c r="J28" s="110">
-        <v>175552</v>
-      </c>
-      <c r="K28" s="110">
-        <v>181915</v>
-      </c>
-      <c r="L28" s="110">
-        <v>184406</v>
-      </c>
-      <c r="M28" s="110">
-        <v>169684</v>
+      <c r="C28" s="110" t="n">
+        <v>85084.0</v>
+      </c>
+      <c r="D28" s="110" t="n">
+        <v>101466.0</v>
+      </c>
+      <c r="E28" s="110" t="n">
+        <v>114246.0</v>
+      </c>
+      <c r="F28" s="110" t="n">
+        <v>122797.0</v>
+      </c>
+      <c r="G28" s="110" t="n">
+        <v>139660.0</v>
+      </c>
+      <c r="H28" s="110" t="n">
+        <v>162696.0</v>
+      </c>
+      <c r="I28" s="110" t="n">
+        <v>169662.0</v>
+      </c>
+      <c r="J28" s="110" t="n">
+        <v>175552.0</v>
+      </c>
+      <c r="K28" s="110" t="n">
+        <v>181915.0</v>
+      </c>
+      <c r="L28" s="110" t="n">
+        <v>184406.0</v>
+      </c>
+      <c r="M28" s="110" t="n">
+        <v>169684.0</v>
       </c>
       <c r="O28" s="107"/>
       <c r="P28" s="107"/>
@@ -23267,45 +23266,45 @@
         <v>27</v>
       </c>
       <c r="C29" s="113"/>
-      <c r="D29" s="121">
+      <c r="D29" s="121" t="n">
         <f t="shared" ref="D29" si="60">(D28-C28)/C28</f>
-        <v>0.19253913779323961</v>
-      </c>
-      <c r="E29" s="121">
+        <v>0.1925391377932396</v>
+      </c>
+      <c r="E29" s="121" t="n">
         <f t="shared" ref="E29" si="61">(E28-D28)/D28</f>
         <v>0.12595352137661878</v>
       </c>
-      <c r="F29" s="121">
+      <c r="F29" s="121" t="n">
         <f t="shared" ref="F29" si="62">(F28-E28)/E28</f>
-        <v>7.4847259422649373E-2</v>
-      </c>
-      <c r="G29" s="121">
+        <v>0.07484725942264937</v>
+      </c>
+      <c r="G29" s="121" t="n">
         <f t="shared" ref="G29" si="63">(G28-F28)/F28</f>
         <v>0.13732420173131266</v>
       </c>
-      <c r="H29" s="121">
+      <c r="H29" s="121" t="n">
         <f t="shared" ref="H29" si="64">(H28-G28)/G28</f>
         <v>0.16494343405413145</v>
       </c>
-      <c r="I29" s="121">
+      <c r="I29" s="121" t="n">
         <f t="shared" ref="I29" si="65">(I28-H28)/H28</f>
-        <v>4.2816049564832571E-2</v>
-      </c>
-      <c r="J29" s="121">
+        <v>0.04281604956483257</v>
+      </c>
+      <c r="J29" s="121" t="n">
         <f t="shared" ref="J29" si="66">(J28-I28)/I28</f>
-        <v>3.4716082564156973E-2</v>
-      </c>
-      <c r="K29" s="121">
+        <v>0.03471608256415697</v>
+      </c>
+      <c r="K29" s="121" t="n">
         <f t="shared" ref="K29" si="67">(K28-J28)/J28</f>
-        <v>3.6245670798395919E-2</v>
-      </c>
-      <c r="L29" s="121">
+        <v>0.03624567079839592</v>
+      </c>
+      <c r="L29" s="121" t="n">
         <f t="shared" ref="L29" si="68">(L28-K28)/K28</f>
-        <v>1.3693208366544815E-2</v>
-      </c>
-      <c r="M29" s="121">
+        <v>0.013693208366544815</v>
+      </c>
+      <c r="M29" s="121" t="n">
         <f t="shared" ref="M29" si="69">(M28-L28)/L28</f>
-        <v>-7.9834712536468441E-2</v>
+        <v>-0.07983471253646844</v>
       </c>
       <c r="O29" s="107"/>
       <c r="P29" s="107"/>
@@ -23358,38 +23357,38 @@
       <c r="B31" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="110">
-        <v>36187</v>
-      </c>
-      <c r="D31" s="110">
-        <v>40965</v>
-      </c>
-      <c r="E31" s="110">
-        <v>58138</v>
-      </c>
-      <c r="F31" s="110">
-        <v>51675</v>
-      </c>
-      <c r="G31" s="110">
-        <v>53808</v>
-      </c>
-      <c r="H31" s="110">
-        <v>87616</v>
-      </c>
-      <c r="I31" s="110">
-        <v>89186</v>
-      </c>
-      <c r="J31" s="110">
-        <v>111004</v>
-      </c>
-      <c r="K31" s="110">
-        <v>119396</v>
-      </c>
-      <c r="L31" s="110">
-        <v>149373</v>
-      </c>
-      <c r="M31" s="110">
-        <v>195156</v>
+      <c r="C31" s="110" t="n">
+        <v>36187.0</v>
+      </c>
+      <c r="D31" s="110" t="n">
+        <v>40965.0</v>
+      </c>
+      <c r="E31" s="110" t="n">
+        <v>58138.0</v>
+      </c>
+      <c r="F31" s="110" t="n">
+        <v>51675.0</v>
+      </c>
+      <c r="G31" s="110" t="n">
+        <v>53808.0</v>
+      </c>
+      <c r="H31" s="110" t="n">
+        <v>87616.0</v>
+      </c>
+      <c r="I31" s="110" t="n">
+        <v>89186.0</v>
+      </c>
+      <c r="J31" s="110" t="n">
+        <v>111004.0</v>
+      </c>
+      <c r="K31" s="110" t="n">
+        <v>119396.0</v>
+      </c>
+      <c r="L31" s="110" t="n">
+        <v>149373.0</v>
+      </c>
+      <c r="M31" s="110" t="n">
+        <v>195156.0</v>
       </c>
       <c r="O31" s="107"/>
       <c r="P31" s="107"/>
@@ -23419,45 +23418,45 @@
         <v>27</v>
       </c>
       <c r="C32" s="113"/>
-      <c r="D32" s="121">
+      <c r="D32" s="121" t="n">
         <f t="shared" ref="D32" si="70">(D31-C31)/C31</f>
         <v>0.13203636665100726</v>
       </c>
-      <c r="E32" s="121">
+      <c r="E32" s="121" t="n">
         <f t="shared" ref="E32" si="71">(E31-D31)/D31</f>
-        <v>0.41921152203100209</v>
-      </c>
-      <c r="F32" s="121">
+        <v>0.4192115220310021</v>
+      </c>
+      <c r="F32" s="121" t="n">
         <f t="shared" ref="F32" si="72">(F31-E31)/E31</f>
         <v>-0.11116653479651863</v>
       </c>
-      <c r="G32" s="121">
+      <c r="G32" s="121" t="n">
         <f t="shared" ref="G32" si="73">(G31-F31)/F31</f>
-        <v>4.1277213352685048E-2</v>
-      </c>
-      <c r="H32" s="121">
+        <v>0.04127721335268505</v>
+      </c>
+      <c r="H32" s="121" t="n">
         <f t="shared" ref="H32" si="74">(H31-G31)/G31</f>
-        <v>0.62830805828129643</v>
-      </c>
-      <c r="I32" s="121">
+        <v>0.6283080582812964</v>
+      </c>
+      <c r="I32" s="121" t="n">
         <f t="shared" ref="I32" si="75">(I31-H31)/H31</f>
-        <v>1.7919101533966399E-2</v>
-      </c>
-      <c r="J32" s="121">
+        <v>0.0179191015339664</v>
+      </c>
+      <c r="J32" s="121" t="n">
         <f t="shared" ref="J32" si="76">(J31-I31)/I31</f>
-        <v>0.24463480815374611</v>
-      </c>
-      <c r="K32" s="121">
+        <v>0.2446348081537461</v>
+      </c>
+      <c r="K32" s="121" t="n">
         <f t="shared" ref="K32" si="77">(K31-J31)/J31</f>
-        <v>7.5600879247594677E-2</v>
-      </c>
-      <c r="L32" s="121">
+        <v>0.07560087924759468</v>
+      </c>
+      <c r="L32" s="121" t="n">
         <f t="shared" ref="L32" si="78">(L31-K31)/K31</f>
         <v>0.25107206271566884</v>
       </c>
-      <c r="M32" s="121">
+      <c r="M32" s="121" t="n">
         <f t="shared" ref="M32" si="79">(M31-L31)/L31</f>
-        <v>0.30650117491112849</v>
+        <v>0.3065011749111285</v>
       </c>
       <c r="O32" s="107"/>
       <c r="P32" s="107"/>
@@ -23511,45 +23510,45 @@
         <v>50</v>
       </c>
       <c r="C34" s="111"/>
-      <c r="D34" s="111">
+      <c r="D34" s="111" t="n">
         <f>D28+D31</f>
-        <v>142431</v>
-      </c>
-      <c r="E34" s="111">
+        <v>142431.0</v>
+      </c>
+      <c r="E34" s="111" t="n">
         <f t="shared" ref="E34:M34" si="80">E28+E31</f>
-        <v>172384</v>
-      </c>
-      <c r="F34" s="111">
+        <v>172384.0</v>
+      </c>
+      <c r="F34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>174472</v>
-      </c>
-      <c r="G34" s="111">
+        <v>174472.0</v>
+      </c>
+      <c r="G34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>193468</v>
-      </c>
-      <c r="H34" s="111">
+        <v>193468.0</v>
+      </c>
+      <c r="H34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>250312</v>
-      </c>
-      <c r="I34" s="111">
+        <v>250312.0</v>
+      </c>
+      <c r="I34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>258848</v>
-      </c>
-      <c r="J34" s="111">
+        <v>258848.0</v>
+      </c>
+      <c r="J34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>286556</v>
-      </c>
-      <c r="K34" s="111">
+        <v>286556.0</v>
+      </c>
+      <c r="K34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>301311</v>
-      </c>
-      <c r="L34" s="111">
+        <v>301311.0</v>
+      </c>
+      <c r="L34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>333779</v>
-      </c>
-      <c r="M34" s="111">
+        <v>333779.0</v>
+      </c>
+      <c r="M34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>364840</v>
+        <v>364840.0</v>
       </c>
       <c r="O34" s="107"/>
       <c r="P34" s="107"/>
@@ -23602,38 +23601,38 @@
       <c r="B36" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="113">
-        <v>32688</v>
-      </c>
-      <c r="D36" s="118">
-        <v>37417</v>
-      </c>
-      <c r="E36" s="110">
-        <v>45625</v>
-      </c>
-      <c r="F36" s="110">
-        <v>49647</v>
-      </c>
-      <c r="G36" s="110">
-        <v>59357</v>
-      </c>
-      <c r="H36" s="110">
-        <v>55745</v>
-      </c>
-      <c r="I36" s="110">
-        <v>58488</v>
-      </c>
-      <c r="J36" s="110">
-        <v>69420</v>
-      </c>
-      <c r="K36" s="110">
-        <v>72310</v>
-      </c>
-      <c r="L36" s="110">
-        <v>88657</v>
-      </c>
-      <c r="M36" s="110">
-        <v>95082</v>
+      <c r="C36" s="113" t="n">
+        <v>32688.0</v>
+      </c>
+      <c r="D36" s="118" t="n">
+        <v>37417.0</v>
+      </c>
+      <c r="E36" s="110" t="n">
+        <v>45625.0</v>
+      </c>
+      <c r="F36" s="110" t="n">
+        <v>49647.0</v>
+      </c>
+      <c r="G36" s="110" t="n">
+        <v>59357.0</v>
+      </c>
+      <c r="H36" s="110" t="n">
+        <v>55745.0</v>
+      </c>
+      <c r="I36" s="110" t="n">
+        <v>58488.0</v>
+      </c>
+      <c r="J36" s="110" t="n">
+        <v>69420.0</v>
+      </c>
+      <c r="K36" s="110" t="n">
+        <v>72310.0</v>
+      </c>
+      <c r="L36" s="110" t="n">
+        <v>88657.0</v>
+      </c>
+      <c r="M36" s="110" t="n">
+        <v>95082.0</v>
       </c>
       <c r="O36" s="107"/>
       <c r="P36" s="107"/>
@@ -23663,45 +23662,45 @@
         <v>27</v>
       </c>
       <c r="C37" s="113"/>
-      <c r="D37" s="121">
+      <c r="D37" s="121" t="n">
         <f t="shared" ref="D37" si="81">(D36-C36)/C36</f>
-        <v>0.14467082721488009</v>
-      </c>
-      <c r="E37" s="121">
+        <v>0.1446708272148801</v>
+      </c>
+      <c r="E37" s="121" t="n">
         <f t="shared" ref="E37" si="82">(E36-D36)/D36</f>
         <v>0.21936552903760323</v>
       </c>
-      <c r="F37" s="121">
+      <c r="F37" s="121" t="n">
         <f t="shared" ref="F37" si="83">(F36-E36)/E36</f>
-        <v>8.8153424657534243E-2</v>
-      </c>
-      <c r="G37" s="121">
+        <v>0.08815342465753424</v>
+      </c>
+      <c r="G37" s="121" t="n">
         <f t="shared" ref="G37" si="84">(G36-F36)/F36</f>
         <v>0.19558080045118537</v>
       </c>
-      <c r="H37" s="121">
+      <c r="H37" s="121" t="n">
         <f t="shared" ref="H37" si="85">(H36-G36)/G36</f>
-        <v>-6.0852132014758156E-2</v>
-      </c>
-      <c r="I37" s="121">
+        <v>-0.060852132014758156</v>
+      </c>
+      <c r="I37" s="121" t="n">
         <f t="shared" ref="I37" si="86">(I36-H36)/H36</f>
-        <v>4.9206206834693691E-2</v>
-      </c>
-      <c r="J37" s="121">
+        <v>0.04920620683469369</v>
+      </c>
+      <c r="J37" s="121" t="n">
         <f t="shared" ref="J37" si="87">(J36-I36)/I36</f>
-        <v>0.18691013541239229</v>
-      </c>
-      <c r="K37" s="121">
+        <v>0.1869101354123923</v>
+      </c>
+      <c r="K37" s="121" t="n">
         <f t="shared" ref="K37" si="88">(K36-J36)/J36</f>
-        <v>4.1630653990204554E-2</v>
-      </c>
-      <c r="L37" s="121">
+        <v>0.041630653990204554</v>
+      </c>
+      <c r="L37" s="121" t="n">
         <f t="shared" ref="L37" si="89">(L36-K36)/K36</f>
         <v>0.22606831696860738</v>
       </c>
-      <c r="M37" s="121">
+      <c r="M37" s="121" t="n">
         <f t="shared" ref="M37" si="90">(M36-L36)/L36</f>
-        <v>7.2470306913159699E-2</v>
+        <v>0.0724703069131597</v>
       </c>
       <c r="O37" s="107"/>
       <c r="P37" s="107"/>
@@ -23754,38 +23753,38 @@
       <c r="B39" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="113">
-        <v>22220</v>
-      </c>
-      <c r="D39" s="110">
-        <v>26070</v>
-      </c>
-      <c r="E39" s="110">
-        <v>36975</v>
-      </c>
-      <c r="F39" s="110">
-        <v>44742</v>
-      </c>
-      <c r="G39" s="110">
-        <v>62114</v>
-      </c>
-      <c r="H39" s="110">
-        <v>106856</v>
-      </c>
-      <c r="I39" s="110">
-        <v>117642</v>
-      </c>
-      <c r="J39" s="110">
-        <v>114806</v>
-      </c>
-      <c r="K39" s="110">
-        <v>110697</v>
-      </c>
-      <c r="L39" s="110">
-        <v>103134</v>
-      </c>
-      <c r="M39" s="110">
-        <v>103216</v>
+      <c r="C39" s="113" t="n">
+        <v>22220.0</v>
+      </c>
+      <c r="D39" s="110" t="n">
+        <v>26070.0</v>
+      </c>
+      <c r="E39" s="110" t="n">
+        <v>36975.0</v>
+      </c>
+      <c r="F39" s="110" t="n">
+        <v>44742.0</v>
+      </c>
+      <c r="G39" s="110" t="n">
+        <v>62114.0</v>
+      </c>
+      <c r="H39" s="110" t="n">
+        <v>106856.0</v>
+      </c>
+      <c r="I39" s="110" t="n">
+        <v>117642.0</v>
+      </c>
+      <c r="J39" s="110" t="n">
+        <v>114806.0</v>
+      </c>
+      <c r="K39" s="110" t="n">
+        <v>110697.0</v>
+      </c>
+      <c r="L39" s="110" t="n">
+        <v>103134.0</v>
+      </c>
+      <c r="M39" s="110" t="n">
+        <v>103216.0</v>
       </c>
       <c r="O39" s="107"/>
       <c r="P39" s="107"/>
@@ -23815,45 +23814,45 @@
         <v>27</v>
       </c>
       <c r="C40" s="113"/>
-      <c r="D40" s="121">
+      <c r="D40" s="121" t="n">
         <f t="shared" ref="D40" si="91">(D39-C39)/C39</f>
         <v>0.17326732673267325</v>
       </c>
-      <c r="E40" s="121">
+      <c r="E40" s="121" t="n">
         <f t="shared" ref="E40" si="92">(E39-D39)/D39</f>
         <v>0.41829689298043726</v>
       </c>
-      <c r="F40" s="121">
+      <c r="F40" s="121" t="n">
         <f t="shared" ref="F40" si="93">(F39-E39)/E39</f>
         <v>0.21006085192697768</v>
       </c>
-      <c r="G40" s="121">
+      <c r="G40" s="121" t="n">
         <f t="shared" ref="G40" si="94">(G39-F39)/F39</f>
         <v>0.3882705288096196</v>
       </c>
-      <c r="H40" s="121">
+      <c r="H40" s="121" t="n">
         <f t="shared" ref="H40" si="95">(H39-G39)/G39</f>
-        <v>0.72032070064719711</v>
-      </c>
-      <c r="I40" s="121">
+        <v>0.7203207006471971</v>
+      </c>
+      <c r="I40" s="121" t="n">
         <f t="shared" ref="I40" si="96">(I39-H39)/H39</f>
         <v>0.1009395822415213</v>
       </c>
-      <c r="J40" s="121">
+      <c r="J40" s="121" t="n">
         <f t="shared" ref="J40" si="97">(J39-I39)/I39</f>
-        <v>-2.4107036602573909E-2</v>
-      </c>
-      <c r="K40" s="121">
+        <v>-0.02410703660257391</v>
+      </c>
+      <c r="K40" s="121" t="n">
         <f t="shared" ref="K40" si="98">(K39-J39)/J39</f>
-        <v>-3.5790812326881867E-2</v>
-      </c>
-      <c r="L40" s="121">
+        <v>-0.03579081232688187</v>
+      </c>
+      <c r="L40" s="121" t="n">
         <f t="shared" ref="L40" si="99">(L39-K39)/K39</f>
-        <v>-6.8321634732648587E-2</v>
-      </c>
-      <c r="M40" s="121">
+        <v>-0.06832163473264859</v>
+      </c>
+      <c r="M40" s="121" t="n">
         <f t="shared" ref="M40" si="100">(M39-L39)/L39</f>
-        <v>7.9508212616595888E-4</v>
+        <v>7.950821261659589E-4</v>
       </c>
       <c r="O40" s="107"/>
       <c r="P40" s="107"/>
@@ -23909,45 +23908,45 @@
       <c r="C42" s="116">
         <v>1</v>
       </c>
-      <c r="D42" s="111">
+      <c r="D42" s="111" t="n">
         <f>D36+D39</f>
-        <v>63487</v>
-      </c>
-      <c r="E42" s="111">
+        <v>63487.0</v>
+      </c>
+      <c r="E42" s="111" t="n">
         <f t="shared" ref="E42:M42" si="101">E36+E39</f>
-        <v>82600</v>
-      </c>
-      <c r="F42" s="111">
+        <v>82600.0</v>
+      </c>
+      <c r="F42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>94389</v>
-      </c>
-      <c r="G42" s="111">
+        <v>94389.0</v>
+      </c>
+      <c r="G42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>121471</v>
-      </c>
-      <c r="H42" s="111">
+        <v>121471.0</v>
+      </c>
+      <c r="H42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>162601</v>
-      </c>
-      <c r="I42" s="111">
+        <v>162601.0</v>
+      </c>
+      <c r="I42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>176130</v>
-      </c>
-      <c r="J42" s="111">
+        <v>176130.0</v>
+      </c>
+      <c r="J42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>184226</v>
-      </c>
-      <c r="K42" s="111">
+        <v>184226.0</v>
+      </c>
+      <c r="K42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>183007</v>
-      </c>
-      <c r="L42" s="111">
+        <v>183007.0</v>
+      </c>
+      <c r="L42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>191791</v>
-      </c>
-      <c r="M42" s="111">
+        <v>191791.0</v>
+      </c>
+      <c r="M42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>198298</v>
+        <v>198298.0</v>
       </c>
       <c r="O42" s="107"/>
       <c r="P42" s="107"/>
@@ -24005,45 +24004,45 @@
       <c r="C44" s="134">
         <v>1</v>
       </c>
-      <c r="D44" s="134">
+      <c r="D44" s="134" t="n">
         <f>D34-D42</f>
-        <v>78944</v>
-      </c>
-      <c r="E44" s="134">
+        <v>78944.0</v>
+      </c>
+      <c r="E44" s="134" t="n">
         <f t="shared" ref="E44:M44" si="102">E34-E42</f>
-        <v>89784</v>
-      </c>
-      <c r="F44" s="134">
+        <v>89784.0</v>
+      </c>
+      <c r="F44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>80083</v>
-      </c>
-      <c r="G44" s="134">
+        <v>80083.0</v>
+      </c>
+      <c r="G44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>71997</v>
-      </c>
-      <c r="H44" s="134">
+        <v>71997.0</v>
+      </c>
+      <c r="H44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>87711</v>
-      </c>
-      <c r="I44" s="134">
+        <v>87711.0</v>
+      </c>
+      <c r="I44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>82718</v>
-      </c>
-      <c r="J44" s="134">
+        <v>82718.0</v>
+      </c>
+      <c r="J44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>102330</v>
-      </c>
-      <c r="K44" s="134">
+        <v>102330.0</v>
+      </c>
+      <c r="K44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>118304</v>
-      </c>
-      <c r="L44" s="134">
+        <v>118304.0</v>
+      </c>
+      <c r="L44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>141988</v>
-      </c>
-      <c r="M44" s="134">
+        <v>141988.0</v>
+      </c>
+      <c r="M44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>166542</v>
+        <v>166542.0</v>
       </c>
       <c r="O44" s="107"/>
       <c r="P44" s="107"/>
@@ -24105,40 +24104,40 @@
     </row>
     <row r="46" spans="2:36">
       <c r="B46" s="122" t="s">
-        <v>155</v>
-      </c>
-      <c r="C46" s="133">
-        <v>10713</v>
-      </c>
-      <c r="D46" s="133">
-        <v>12601</v>
-      </c>
-      <c r="E46" s="133">
-        <v>20645</v>
-      </c>
-      <c r="F46" s="133">
-        <v>27808</v>
-      </c>
-      <c r="G46" s="133">
-        <v>40557</v>
-      </c>
-      <c r="H46" s="133">
-        <v>76073</v>
-      </c>
-      <c r="I46" s="133">
-        <v>72242</v>
-      </c>
-      <c r="J46" s="133">
-        <v>66662</v>
-      </c>
-      <c r="K46" s="136">
-        <v>59578</v>
-      </c>
-      <c r="L46" s="133">
-        <v>50074</v>
-      </c>
-      <c r="M46" s="133">
-        <v>47032</v>
+        <v>158</v>
+      </c>
+      <c r="C46" s="133" t="n">
+        <v>10713.0</v>
+      </c>
+      <c r="D46" s="133" t="n">
+        <v>12601.0</v>
+      </c>
+      <c r="E46" s="133" t="n">
+        <v>20645.0</v>
+      </c>
+      <c r="F46" s="133" t="n">
+        <v>27808.0</v>
+      </c>
+      <c r="G46" s="133" t="n">
+        <v>40557.0</v>
+      </c>
+      <c r="H46" s="133" t="n">
+        <v>76073.0</v>
+      </c>
+      <c r="I46" s="133" t="n">
+        <v>72242.0</v>
+      </c>
+      <c r="J46" s="133" t="n">
+        <v>66662.0</v>
+      </c>
+      <c r="K46" s="136" t="n">
+        <v>59578.0</v>
+      </c>
+      <c r="L46" s="133" t="n">
+        <v>50074.0</v>
+      </c>
+      <c r="M46" s="133" t="n">
+        <v>47032.0</v>
       </c>
       <c r="Q46" s="107"/>
       <c r="R46" s="107"/>
@@ -24272,45 +24271,45 @@
         <v>57</v>
       </c>
       <c r="C50" s="113"/>
-      <c r="D50" s="126">
+      <c r="D50" s="126" t="n">
         <f t="shared" ref="D50:M50" si="103">D6/D3</f>
-        <v>0.28083854641678119</v>
-      </c>
-      <c r="E50" s="126">
+        <v>0.2808385464167812</v>
+      </c>
+      <c r="E50" s="126" t="n">
         <f t="shared" si="103"/>
-        <v>0.25421210829983992</v>
-      </c>
-      <c r="F50" s="126">
+        <v>0.2542121082998399</v>
+      </c>
+      <c r="F50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.13029493481513144</v>
       </c>
-      <c r="G50" s="126">
+      <c r="G50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.22532198257893235</v>
       </c>
-      <c r="H50" s="126">
+      <c r="H50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.26394052044609667</v>
       </c>
-      <c r="I50" s="126">
+      <c r="I50" s="126" t="n">
         <f t="shared" si="103"/>
-        <v>0.15015404131931859</v>
-      </c>
-      <c r="J50" s="126">
+        <v>0.1501540413193186</v>
+      </c>
+      <c r="J50" s="126" t="n">
         <f t="shared" si="103"/>
-        <v>0.31181710544090652</v>
-      </c>
-      <c r="K50" s="126">
+        <v>0.3118171054409065</v>
+      </c>
+      <c r="K50" s="126" t="n">
         <f t="shared" si="103"/>
-        <v>0.30962486452470023</v>
-      </c>
-      <c r="L50" s="126">
+        <v>0.3096248645247002</v>
+      </c>
+      <c r="L50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.36451739564989766</v>
       </c>
-      <c r="M50" s="126">
+      <c r="M50" s="126" t="n">
         <f t="shared" si="103"/>
-        <v>0.36686336813436221</v>
+        <v>0.3668633681343622</v>
       </c>
       <c r="O50" s="107"/>
       <c r="P50" s="107"/>
@@ -24340,43 +24339,43 @@
         <v>58</v>
       </c>
       <c r="C51" s="113"/>
-      <c r="D51" s="126">
+      <c r="D51" s="126" t="n">
         <f t="shared" ref="D51:M51" si="104">D9/D3</f>
         <v>0.39202815707330857</v>
       </c>
-      <c r="E51" s="126">
+      <c r="E51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.37970587219144797</v>
       </c>
-      <c r="F51" s="126">
+      <c r="F51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.33784996794186795</v>
       </c>
-      <c r="G51" s="126">
+      <c r="G51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.36564495249797047</v>
       </c>
-      <c r="H51" s="126">
+      <c r="H51" s="126" t="n">
         <f t="shared" si="104"/>
-        <v>0.39145292064905612</v>
-      </c>
-      <c r="I51" s="126">
+        <v>0.3914529206490561</v>
+      </c>
+      <c r="I51" s="126" t="n">
         <f t="shared" si="104"/>
-        <v>0.41064697354113811</v>
-      </c>
-      <c r="J51" s="126">
+        <v>0.4106469735411381</v>
+      </c>
+      <c r="J51" s="126" t="n">
         <f t="shared" si="104"/>
-        <v>0.43419975683987189</v>
-      </c>
-      <c r="K51" s="126">
+        <v>0.4341997568398719</v>
+      </c>
+      <c r="K51" s="126" t="n">
         <f t="shared" si="104"/>
-        <v>0.45977694647414608</v>
-      </c>
-      <c r="L51" s="126">
+        <v>0.4597769464741461</v>
+      </c>
+      <c r="L51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.48547189567369475</v>
       </c>
-      <c r="M51" s="126">
+      <c r="M51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.49348363342916224</v>
       </c>
@@ -24408,45 +24407,45 @@
         <v>59</v>
       </c>
       <c r="C52" s="113"/>
-      <c r="D52" s="126">
+      <c r="D52" s="126" t="n">
         <f t="shared" ref="D52:M52" si="105">D20/D3</f>
         <v>0.3156880627882182</v>
       </c>
-      <c r="E52" s="126">
+      <c r="E52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>0.31113747077723908</v>
-      </c>
-      <c r="F52" s="126">
+        <v>0.3111374707772391</v>
+      </c>
+      <c r="F52" s="126" t="n">
         <f t="shared" si="105"/>
         <v>0.25351570848471894</v>
       </c>
-      <c r="G52" s="126">
+      <c r="G52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>0.27406367246637559</v>
-      </c>
-      <c r="H52" s="126">
+        <v>0.2740636724663756</v>
+      </c>
+      <c r="H52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>0.32492156030278241</v>
-      </c>
-      <c r="I52" s="126">
+        <v>0.3249215603027824</v>
+      </c>
+      <c r="I52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>0.29224356650960492</v>
-      </c>
-      <c r="J52" s="126">
+        <v>0.2922435665096049</v>
+      </c>
+      <c r="J52" s="126" t="n">
         <f t="shared" si="105"/>
         <v>0.30402962421429874</v>
       </c>
-      <c r="K52" s="126">
+      <c r="K52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>0.31628850120616719</v>
-      </c>
-      <c r="L52" s="126">
+        <v>0.3162885012061672</v>
+      </c>
+      <c r="L52" s="126" t="n">
         <f t="shared" si="105"/>
         <v>0.33386083480081863</v>
       </c>
-      <c r="M52" s="126">
+      <c r="M52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>0.32858727997175569</v>
+        <v>0.3285872799717557</v>
       </c>
       <c r="O52" s="107"/>
       <c r="P52" s="107"/>
@@ -24558,43 +24557,43 @@
         <v>62</v>
       </c>
       <c r="C55" s="114"/>
-      <c r="D55" s="126">
+      <c r="D55" s="126" t="n">
         <f>D23/D20</f>
         <v>0.3033447265625</v>
       </c>
-      <c r="E55" s="126">
+      <c r="E55" s="126" t="n">
         <f t="shared" ref="E55:M55" si="106">E23/E20</f>
-        <v>0.32864492726801642</v>
-      </c>
-      <c r="F55" s="126">
+        <v>0.3286449272680164</v>
+      </c>
+      <c r="F55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.41654021244309558</v>
-      </c>
-      <c r="G55" s="126">
+        <v>0.4165402124430956</v>
+      </c>
+      <c r="G55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.44055720118485309</v>
-      </c>
-      <c r="H55" s="126">
+        <v>0.4405572011848531</v>
+      </c>
+      <c r="H55" s="126" t="n">
         <f t="shared" si="106"/>
         <v>0.37749378545477724</v>
       </c>
-      <c r="I55" s="126">
+      <c r="I55" s="126" t="n">
         <f t="shared" si="106"/>
         <v>0.39374302368845343</v>
       </c>
-      <c r="J55" s="126">
+      <c r="J55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.36097752221641399</v>
-      </c>
-      <c r="K55" s="126">
+        <v>0.360977522216414</v>
+      </c>
+      <c r="K55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.33463766193571209</v>
-      </c>
-      <c r="L55" s="126">
+        <v>0.3346376619357121</v>
+      </c>
+      <c r="L55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.29439751951245591</v>
-      </c>
-      <c r="M55" s="126">
+        <v>0.2943975195124559</v>
+      </c>
+      <c r="M55" s="126" t="n">
         <f t="shared" si="106"/>
         <v>0.27836190885508605</v>
       </c>
@@ -24708,43 +24707,43 @@
         <v>64</v>
       </c>
       <c r="C58" s="113"/>
-      <c r="D58" s="112">
+      <c r="D58" s="112" t="n">
         <f>D42/D44</f>
-        <v>0.80420297932711793</v>
-      </c>
-      <c r="E58" s="112">
+        <v>0.8042029793271179</v>
+      </c>
+      <c r="E58" s="112" t="n">
         <f t="shared" ref="E58:M58" si="107">E42/E44</f>
-        <v>0.91998574356232732</v>
-      </c>
-      <c r="F58" s="112">
+        <v>0.9199857435623273</v>
+      </c>
+      <c r="F58" s="112" t="n">
         <f t="shared" si="107"/>
-        <v>1.1786396613513479</v>
-      </c>
-      <c r="G58" s="112">
+        <v>1.178639661351348</v>
+      </c>
+      <c r="G58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>1.6871675208689252</v>
       </c>
-      <c r="H58" s="112">
+      <c r="H58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>1.8538267720126325</v>
       </c>
-      <c r="I58" s="112">
+      <c r="I58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>2.1292826228874007</v>
       </c>
-      <c r="J58" s="112">
+      <c r="J58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>1.8003127137691781</v>
       </c>
-      <c r="K58" s="112">
+      <c r="K58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>1.5469214903976196</v>
       </c>
-      <c r="L58" s="112">
+      <c r="L58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>1.3507549933797223</v>
       </c>
-      <c r="M58" s="112">
+      <c r="M58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>1.1906786276134549</v>
       </c>
@@ -24776,43 +24775,43 @@
         <v>65</v>
       </c>
       <c r="C59" s="113"/>
-      <c r="D59" s="112">
+      <c r="D59" s="112" t="n">
         <f>D28/D36</f>
         <v>2.7117620333003716</v>
       </c>
-      <c r="E59" s="112">
+      <c r="E59" s="112" t="n">
         <f t="shared" ref="E59:M59" si="108">E28/E36</f>
         <v>2.504021917808219</v>
       </c>
-      <c r="F59" s="112">
+      <c r="F59" s="112" t="n">
         <f t="shared" si="108"/>
         <v>2.4734022196708763</v>
       </c>
-      <c r="G59" s="112">
+      <c r="G59" s="112" t="n">
         <f t="shared" si="108"/>
         <v>2.3528817157201343</v>
       </c>
-      <c r="H59" s="112">
+      <c r="H59" s="112" t="n">
         <f t="shared" si="108"/>
-        <v>2.9185756570095971</v>
-      </c>
-      <c r="I59" s="112">
+        <v>2.918575657009597</v>
+      </c>
+      <c r="I59" s="112" t="n">
         <f t="shared" si="108"/>
-        <v>2.9008001641362329</v>
-      </c>
-      <c r="J59" s="112">
+        <v>2.900800164136233</v>
+      </c>
+      <c r="J59" s="112" t="n">
         <f t="shared" si="108"/>
         <v>2.5288389513108616</v>
       </c>
-      <c r="K59" s="112">
+      <c r="K59" s="112" t="n">
         <f t="shared" si="108"/>
         <v>2.5157654542940118</v>
       </c>
-      <c r="L59" s="112">
+      <c r="L59" s="112" t="n">
         <f t="shared" si="108"/>
         <v>2.0799936835218875</v>
       </c>
-      <c r="M59" s="112">
+      <c r="M59" s="112" t="n">
         <f t="shared" si="108"/>
         <v>1.7846069708251824</v>
       </c>
@@ -24841,47 +24840,47 @@
     </row>
     <row r="60" spans="2:36">
       <c r="B60" s="122" t="s">
-        <v>157</v>
-      </c>
-      <c r="D60" s="112">
+        <v>160</v>
+      </c>
+      <c r="D60" s="112" t="n">
         <f>D46/D9</f>
         <v>0.41289033061371605</v>
       </c>
-      <c r="E60" s="112">
+      <c r="E60" s="112" t="n">
         <f t="shared" ref="E60:M60" si="109">E46/E9</f>
         <v>0.6261563191895908</v>
       </c>
-      <c r="F60" s="112">
+      <c r="F60" s="112" t="n">
         <f t="shared" si="109"/>
-        <v>0.87955465587044535</v>
-      </c>
-      <c r="G60" s="112">
+        <v>0.8795546558704453</v>
+      </c>
+      <c r="G60" s="112" t="n">
         <f t="shared" si="109"/>
         <v>1.2168316831683168</v>
       </c>
-      <c r="H60" s="112">
+      <c r="H60" s="112" t="n">
         <f t="shared" si="109"/>
-        <v>2.0123535169166469</v>
-      </c>
-      <c r="I60" s="112">
+        <v>2.012353516916647</v>
+      </c>
+      <c r="I60" s="112" t="n">
         <f t="shared" si="109"/>
-        <v>1.5940775392219599</v>
-      </c>
-      <c r="J60" s="112">
+        <v>1.59407753922196</v>
+      </c>
+      <c r="J60" s="112" t="n">
         <f t="shared" si="109"/>
-        <v>1.2199996339744881</v>
-      </c>
-      <c r="K60" s="112">
+        <v>1.219999633974488</v>
+      </c>
+      <c r="K60" s="112" t="n">
         <f t="shared" si="109"/>
-        <v>0.90606037563683373</v>
-      </c>
-      <c r="L60" s="112">
+        <v>0.9060603756368337</v>
+      </c>
+      <c r="L60" s="112" t="n">
         <f t="shared" si="109"/>
-        <v>0.61363692066370923</v>
-      </c>
-      <c r="M60" s="112">
+        <v>0.6136369206637092</v>
+      </c>
+      <c r="M60" s="112" t="n">
         <f t="shared" si="109"/>
-        <v>0.48068844986355691</v>
+        <v>0.4806884498635569</v>
       </c>
       <c r="O60" s="107"/>
       <c r="P60" s="107"/>
@@ -24964,7 +24963,7 @@
         <v>73</v>
       </c>
       <c r="C63" s="113"/>
-      <c r="D63" s="121">
+      <c r="D63" s="121" t="n">
         <f>(M20/I20)^0.2 - 1</f>
         <v>0.15098647553880373</v>
       </c>
@@ -24996,7 +24995,7 @@
         <v>83</v>
       </c>
       <c r="C64" s="113"/>
-      <c r="D64" s="121">
+      <c r="D64" s="121" t="n">
         <f>(M20/D20)^0.1 - 1</f>
         <v>0.10240114479019535</v>
       </c>
@@ -25006,9 +25005,9 @@
         <v>74</v>
       </c>
       <c r="C65" s="114"/>
-      <c r="D65" s="121">
+      <c r="D65" s="121" t="n">
         <f>(M6/I6)^0.2 - 1</f>
-        <v>0.34425768397181389</v>
+        <v>0.3442576839718139</v>
       </c>
     </row>
     <row r="66" spans="2:13">
@@ -25016,7 +25015,7 @@
         <v>84</v>
       </c>
       <c r="C66" s="114"/>
-      <c r="D66" s="121">
+      <c r="D66" s="121" t="n">
         <f>(M6/D6)^0.1 - 1</f>
         <v>0.12773006839414247</v>
       </c>
@@ -25026,7 +25025,7 @@
         <v>75</v>
       </c>
       <c r="C67" s="114"/>
-      <c r="D67" s="121">
+      <c r="D67" s="121" t="n">
         <f>(M3/I3)^0.2 - 1</f>
         <v>0.12431773933039225</v>
       </c>
@@ -25036,9 +25035,9 @@
         <v>85</v>
       </c>
       <c r="C68" s="114"/>
-      <c r="D68" s="121">
+      <c r="D68" s="121" t="n">
         <f>(M3/D3)^0.1 - 1</f>
-        <v>9.7995086932553654E-2</v>
+        <v>0.09799508693255365</v>
       </c>
     </row>
     <row r="69" spans="2:13">
@@ -25046,7 +25045,7 @@
         <v>88</v>
       </c>
       <c r="C69" s="114"/>
-      <c r="D69" s="121">
+      <c r="D69" s="121" t="n">
         <f>(M9/I9)^0.2 - 1</f>
         <v>0.16640638518275286</v>
       </c>
@@ -25056,7 +25055,7 @@
         <v>89</v>
       </c>
       <c r="C70" s="114"/>
-      <c r="D70" s="121">
+      <c r="D70" s="121" t="n">
         <f>(M9/D9)^0.2 - 1</f>
         <v>0.26238519394954185</v>
       </c>
@@ -25065,25 +25064,25 @@
       <c r="B71" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D71" s="121">
+      <c r="D71" s="121" t="n">
         <f>(M23/I23)^0.2 - 1</f>
-        <v>7.3864800952310627E-2</v>
+        <v>0.07386480095231063</v>
       </c>
     </row>
     <row r="72" spans="2:13">
       <c r="B72" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D72" s="121">
+      <c r="D72" s="121" t="n">
         <f>AVERAGE(I24:M24)</f>
-        <v>8.895994876521883E-2</v>
+        <v>0.08895994876521883</v>
       </c>
     </row>
     <row r="73" spans="2:13">
       <c r="B73" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D73" s="121">
+      <c r="D73" s="121" t="n">
         <f>AVERAGE(I55:M55)</f>
         <v>0.33242352724162433</v>
       </c>
@@ -25131,45 +25130,45 @@
       <c r="C76" s="110">
         <v>0</v>
       </c>
-      <c r="D76" s="110">
+      <c r="D76" s="110" t="n">
         <f t="shared" ref="D76:M76" si="110">100*D6/D34</f>
         <v>15.34988871804593</v>
       </c>
-      <c r="E76" s="110">
+      <c r="E76" s="110" t="n">
         <f t="shared" si="110"/>
         <v>12.805132726935215</v>
       </c>
-      <c r="F76" s="110">
+      <c r="F76" s="110" t="n">
         <f t="shared" si="110"/>
         <v>6.9885139162730985</v>
       </c>
-      <c r="G76" s="110">
+      <c r="G76" s="110" t="n">
         <f t="shared" si="110"/>
         <v>10.616225939173404</v>
       </c>
-      <c r="H76" s="110">
+      <c r="H76" s="110" t="n">
         <f t="shared" si="110"/>
         <v>10.182891751094633</v>
       </c>
-      <c r="I76" s="110">
+      <c r="I76" s="110" t="n">
         <f t="shared" si="110"/>
-        <v>6.4018265545802944</v>
-      </c>
-      <c r="J76" s="110">
+        <v>6.401826554580294</v>
+      </c>
+      <c r="J76" s="110" t="n">
         <f t="shared" si="110"/>
-        <v>13.693658482111699</v>
-      </c>
-      <c r="K76" s="110">
+        <v>13.6936584821117</v>
+      </c>
+      <c r="K76" s="110" t="n">
         <f t="shared" si="110"/>
         <v>14.696111326835064</v>
       </c>
-      <c r="L76" s="110">
+      <c r="L76" s="110" t="n">
         <f t="shared" si="110"/>
         <v>18.356757015869782</v>
       </c>
-      <c r="M76" s="110">
+      <c r="M76" s="110" t="n">
         <f t="shared" si="110"/>
-        <v>19.936958666812849</v>
+        <v>19.93695866681285</v>
       </c>
     </row>
     <row r="77" spans="2:13">
@@ -25179,83 +25178,83 @@
       <c r="C77" s="110">
         <v>0</v>
       </c>
-      <c r="D77" s="110">
+      <c r="D77" s="110" t="n">
         <f t="shared" ref="D77:M77" si="111">100*D6/D44</f>
         <v>27.694314957438184</v>
       </c>
-      <c r="E77" s="110">
+      <c r="E77" s="110" t="n">
         <f t="shared" si="111"/>
-        <v>24.585672280139001</v>
-      </c>
-      <c r="F77" s="110">
+        <v>24.585672280139</v>
+      </c>
+      <c r="F77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>15.225453591898406</v>
       </c>
-      <c r="G77" s="110">
+      <c r="G77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>28.527577537952972</v>
       </c>
-      <c r="H77" s="110">
+      <c r="H77" s="110" t="n">
         <f t="shared" si="111"/>
-        <v>29.060209095780461</v>
-      </c>
-      <c r="I77" s="110">
+        <v>29.06020909578046</v>
+      </c>
+      <c r="I77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>20.033124591987235</v>
       </c>
-      <c r="J77" s="110">
+      <c r="J77" s="110" t="n">
         <f t="shared" si="111"/>
-        <v>38.346525945470539</v>
-      </c>
-      <c r="K77" s="110">
+        <v>38.34652594547054</v>
+      </c>
+      <c r="K77" s="110" t="n">
         <f t="shared" si="111"/>
-        <v>37.429841763592101</v>
-      </c>
-      <c r="L77" s="110">
+        <v>37.4298417635921</v>
+      </c>
+      <c r="L77" s="110" t="n">
         <f t="shared" si="111"/>
-        <v>43.152238217314142</v>
-      </c>
-      <c r="M77" s="110">
+        <v>43.15223821731414</v>
+      </c>
+      <c r="M77" s="110" t="n">
         <f t="shared" si="111"/>
-        <v>43.675469250999747</v>
+        <v>43.67546925099975</v>
       </c>
     </row>
     <row r="78" spans="2:13">
       <c r="B78" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C78" s="110">
-        <v>0</v>
-      </c>
-      <c r="D78" s="40">
+      <c r="C78" s="110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D78" s="40" t="n">
         <v>25.700000762939453</v>
       </c>
-      <c r="E78" s="40">
+      <c r="E78" s="40" t="n">
         <v>21.790000915527344</v>
       </c>
-      <c r="F78" s="40">
-        <v>11.159999847412109</v>
-      </c>
-      <c r="G78" s="40">
-        <v>14.810000419616699</v>
-      </c>
-      <c r="H78" s="40">
+      <c r="F78" s="40" t="n">
+        <v>11.15999984741211</v>
+      </c>
+      <c r="G78" s="40" t="n">
+        <v>14.8100004196167</v>
+      </c>
+      <c r="H78" s="40" t="n">
         <v>16.360000610351562</v>
       </c>
-      <c r="I78" s="40">
+      <c r="I78" s="40" t="n">
         <v>11.489999771118164</v>
       </c>
-      <c r="J78" s="40">
+      <c r="J78" s="40" t="n">
         <v>22.690000534057617</v>
       </c>
-      <c r="K78" s="40">
+      <c r="K78" s="40" t="n">
         <v>23.899999618530273</v>
       </c>
-      <c r="L78" s="40">
+      <c r="L78" s="40" t="n">
         <v>30.799999237060547</v>
       </c>
-      <c r="M78" s="40">
-        <v>33.229999542236328</v>
+      <c r="M78" s="40" t="n">
+        <v>33.22999954223633</v>
       </c>
     </row>
     <row r="80" spans="2:13" ht="17.5" thickBot="1">
@@ -25298,37 +25297,37 @@
       <c r="B81" s="122" t="s">
         <v>147</v>
       </c>
-      <c r="C81" s="110">
-        <v>0</v>
-      </c>
-      <c r="D81" s="40">
+      <c r="C81" s="110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D81" s="40" t="n">
         <v>14.010000228881836</v>
       </c>
-      <c r="E81" s="40">
+      <c r="E81" s="40" t="n">
         <v>18.219999313354492</v>
       </c>
-      <c r="F81" s="40">
-        <v>36.740001678466797</v>
-      </c>
-      <c r="G81" s="40">
+      <c r="F81" s="40" t="n">
+        <v>36.7400016784668</v>
+      </c>
+      <c r="G81" s="40" t="n">
         <v>29.729999542236328</v>
       </c>
-      <c r="H81" s="40">
+      <c r="H81" s="40" t="n">
         <v>30.229999542236328</v>
       </c>
-      <c r="I81" s="40">
-        <v>41.799999237060547</v>
-      </c>
-      <c r="J81" s="40">
+      <c r="I81" s="40" t="n">
+        <v>41.79999923706055</v>
+      </c>
+      <c r="J81" s="40" t="n">
         <v>29.75</v>
       </c>
-      <c r="K81" s="40">
+      <c r="K81" s="40" t="n">
         <v>35.869998931884766</v>
       </c>
-      <c r="L81" s="40">
+      <c r="L81" s="40" t="n">
         <v>37.619998931884766</v>
       </c>
-      <c r="M81" s="40">
+      <c r="M81" s="40" t="n">
         <v>25.809999465942383</v>
       </c>
     </row>
@@ -25336,37 +25335,37 @@
       <c r="B82" s="122" t="s">
         <v>148</v>
       </c>
-      <c r="C82" s="110">
-        <v>0</v>
-      </c>
-      <c r="D82" s="40">
+      <c r="C82" s="110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D82" s="40" t="n">
         <v>11.079999923706055</v>
       </c>
-      <c r="E82" s="40">
+      <c r="E82" s="40" t="n">
         <v>12.020000457763672</v>
       </c>
-      <c r="F82" s="40">
+      <c r="F82" s="40" t="n">
         <v>15.479999542236328</v>
       </c>
-      <c r="G82" s="40">
+      <c r="G82" s="40" t="n">
         <v>13.739999771118164</v>
       </c>
-      <c r="H82" s="40">
+      <c r="H82" s="40" t="n">
         <v>16.540000915527344</v>
       </c>
-      <c r="I82" s="40">
+      <c r="I82" s="40" t="n">
         <v>17.530000686645508</v>
       </c>
-      <c r="J82" s="40">
+      <c r="J82" s="40" t="n">
         <v>23.309999465942383</v>
       </c>
-      <c r="K82" s="40">
+      <c r="K82" s="40" t="n">
         <v>25.760000228881836</v>
       </c>
-      <c r="L82" s="40">
+      <c r="L82" s="40" t="n">
         <v>31.149999618530273</v>
       </c>
-      <c r="M82" s="40">
+      <c r="M82" s="40" t="n">
         <v>20.559999465942383</v>
       </c>
     </row>
@@ -25374,7 +25373,7 @@
       <c r="B83" s="122" t="s">
         <v>153</v>
       </c>
-      <c r="C83" s="110">
+      <c r="C83" s="110" t="n">
         <v>2.130000114440918</v>
       </c>
     </row>
